--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>编号</t>
   </si>
@@ -34,12 +34,15 @@
     <t>付款记录</t>
   </si>
   <si>
-    <t>发票</t>
-  </si>
-  <si>
     <t>验真</t>
   </si>
   <si>
+    <t>航意险</t>
+  </si>
+  <si>
+    <t>航意险发票</t>
+  </si>
+  <si>
     <t>小计</t>
   </si>
   <si>
@@ -58,7 +61,19 @@
     <t>海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮</t>
   </si>
   <si>
+    <t>行程单:郝旭光</t>
+  </si>
+  <si>
     <t>郝旭光</t>
+  </si>
+  <si>
+    <t>行程单:成志远</t>
+  </si>
+  <si>
+    <t>行程单:张嘉佳</t>
+  </si>
+  <si>
+    <t>行程单:傅琦玮</t>
   </si>
   <si>
     <t>哈尔滨太平-哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮</t>
@@ -158,14 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,6 +185,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,6 +546,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -550,30 +589,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -682,7 +697,7 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,10 +706,10 @@
     <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,13 +745,13 @@
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -757,7 +772,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,7 +781,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,7 +793,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,25 +805,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -817,14 +832,14 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +873,24 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -876,79 +909,85 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,12 +1324,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1298,18 +1337,19 @@
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="10.6416666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.525" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.23333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3" style="2" customWidth="1"/>
-    <col min="12" max="24" width="9" style="2"/>
+    <col min="6" max="6" width="5.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3" style="2" customWidth="1"/>
+    <col min="13" max="25" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1331,391 +1371,493 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="1" customHeight="1" spans="2:9">
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="1" customHeight="1" spans="2:10">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" s="6"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A14" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="42">
+        <f>IF(E3&lt;H3,E3,H3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="43">
+        <f>SUM(I3:I15)</f>
+        <v>5446.46</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27">
-        <f>IF(E3&lt;F3,E3,F3)</f>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="30">
+        <v>5199.97</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="31">
+        <v>236</v>
+      </c>
+      <c r="H4" s="30">
+        <v>59</v>
+      </c>
+      <c r="I4" s="44">
+        <f>SUM(E4,IF(G4&lt;SUM(H4:H7),G4,SUM(H4:H7)))</f>
+        <v>5435.97</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31">
+        <v>59</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7">
+        <f>ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31">
+        <v>59</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
+        <f>ROW()-2</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31">
+        <v>59</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7">
+        <f t="shared" ref="A8:A17" si="0">ROW()-2</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="42">
+        <f t="shared" ref="I8:I21" si="1">IF(E8&lt;H8,E8,H8)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="38">
-        <f>SUM(H3:H12)</f>
-        <v>10.49</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27">
-        <f t="shared" ref="H4:H18" si="1">IF(E4&lt;F4,E4,F4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="45"/>
+      <c r="K8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="27">
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="45"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="30">
-        <v>10.49</v>
-      </c>
-      <c r="F10" s="30">
-        <v>10.49</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="27">
+      <c r="C10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="42">
         <f t="shared" si="1"/>
-        <v>10.49</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="27">
+      <c r="B11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="45"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="27">
+      <c r="B12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="45"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="33"/>
+      <c r="D13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="31">
+        <v>10.49</v>
+      </c>
       <c r="F13" s="33"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="27">
+      <c r="G13" s="31"/>
+      <c r="H13" s="31">
+        <v>10.49</v>
+      </c>
+      <c r="I13" s="42">
+        <f t="shared" si="1"/>
+        <v>10.49</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7">
-        <f>ROW()-2</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="27">
+      <c r="J14" s="45"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="17">
-        <f>ROW()-2</f>
-        <v>13</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="34">
-        <v>1230</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="27">
+      <c r="J15" s="45"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="21"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="27">
+      <c r="J16" s="45"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7">
+        <f>ROW()-2</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="21"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="22" t="s">
+      <c r="J17" s="48"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="23">
+        <f>ROW()-2</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="27">
+      <c r="E18" s="31">
+        <v>1230</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="27">
+      <c r="J18" s="49"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="26"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="26"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="26"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="I3:I15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J3:J18"/>
+    <mergeCell ref="K4:K7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:J3 A4:A15 B4 H4:H18">
+  <conditionalFormatting sqref="A3:K3 I8:I21 I4 A5:A18 A4:B4">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -1723,27 +1865,46 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="海师-美兰: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C4" r:id="rId2" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C5" r:id="rId3" display="哈尔滨太平-哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C6" r:id="rId4" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C7" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C8" r:id="rId6" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C10" r:id="rId7" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C9" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C11" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D7" r:id="rId8" display="订单"/>
-    <hyperlink ref="C15" r:id="rId9" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
-    <hyperlink ref="D15" r:id="rId10" display="行程单"/>
-    <hyperlink ref="D16" r:id="rId11" display="行程单"/>
-    <hyperlink ref="D17" r:id="rId12" display="行程单"/>
-    <hyperlink ref="D18" r:id="rId13" display="行程单"/>
-    <hyperlink ref="G15" r:id="rId14" display="验真"/>
-    <hyperlink ref="G16" r:id="rId15" display="验真"/>
-    <hyperlink ref="G17" r:id="rId16" display="验真"/>
-    <hyperlink ref="G18" r:id="rId17" display="验真"/>
-    <hyperlink ref="E15" r:id="rId18" display="1230"/>
-    <hyperlink ref="D10" r:id="rId19" display="行程单"/>
-    <hyperlink ref="E10" r:id="rId20" display="10.49"/>
-    <hyperlink ref="F10" r:id="rId21" display="10.49"/>
+    <hyperlink ref="C8" r:id="rId3" display="哈尔滨太平-哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C9" r:id="rId4" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C10" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C11" r:id="rId6" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C13" r:id="rId7" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C12" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C14" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D10" r:id="rId8" display="订单"/>
+    <hyperlink ref="C18" r:id="rId9" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
+    <hyperlink ref="D18" r:id="rId10" display="行程单"/>
+    <hyperlink ref="D19" r:id="rId11" display="行程单"/>
+    <hyperlink ref="D20" r:id="rId12" display="行程单"/>
+    <hyperlink ref="D21" r:id="rId13" display="行程单"/>
+    <hyperlink ref="F18" r:id="rId14" display="验真"/>
+    <hyperlink ref="F19" r:id="rId15" display="验真"/>
+    <hyperlink ref="F20" r:id="rId16" display="验真"/>
+    <hyperlink ref="F21" r:id="rId17" display="验真"/>
+    <hyperlink ref="E18" r:id="rId18" display="1230"/>
+    <hyperlink ref="D13" r:id="rId19" display="行程单"/>
+    <hyperlink ref="E13" r:id="rId20" display="10.49"/>
+    <hyperlink ref="H13" r:id="rId21" display="10.49"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId22" display="行程单:郝旭光"/>
+    <hyperlink ref="D5" r:id="rId23" display="行程单:成志远"/>
+    <hyperlink ref="D6" r:id="rId24" display="行程单:张嘉佳"/>
+    <hyperlink ref="D7" r:id="rId25" display="行程单:傅琦玮"/>
+    <hyperlink ref="E4:E7" r:id="rId26" display="5199.97"/>
+    <hyperlink ref="C4:C7" r:id="rId27" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="G4:G7" r:id="rId28" display="236"/>
+    <hyperlink ref="C4:C7" r:id="rId29" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="H4" r:id="rId30" display="59"/>
+    <hyperlink ref="H5" r:id="rId31" display="59"/>
+    <hyperlink ref="H6" r:id="rId32" display="59"/>
+    <hyperlink ref="H7" r:id="rId33" display="59"/>
+    <hyperlink ref="F4" r:id="rId34" display="验真"/>
+    <hyperlink ref="F5" r:id="rId35" display="验真"/>
+    <hyperlink ref="F6" r:id="rId36" display="验真"/>
+    <hyperlink ref="F7" r:id="rId37" display="验真"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>编号</t>
   </si>
@@ -40,7 +40,7 @@
     <t>航意险</t>
   </si>
   <si>
-    <t>航意险发票</t>
+    <t>发票</t>
   </si>
   <si>
     <t>小计</t>
@@ -88,6 +88,9 @@
     <t>瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮</t>
   </si>
   <si>
+    <t>行程单</t>
+  </si>
+  <si>
     <t>哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>2024-08-21</t>
-  </si>
-  <si>
-    <t>行程单</t>
   </si>
   <si>
     <t>2024-08-22</t>
@@ -1329,7 +1329,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G7"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="J3" s="43">
         <f>SUM(I3:I15)</f>
-        <v>5446.46</v>
+        <v>5456.38</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -1558,14 +1558,20 @@
       <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="30">
+        <v>10.74</v>
+      </c>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="H9" s="30">
+        <v>9.92</v>
+      </c>
       <c r="I9" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.92</v>
       </c>
       <c r="J9" s="45"/>
       <c r="K9" s="8"/>
@@ -1579,7 +1585,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>3</v>
@@ -1601,7 +1607,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>22</v>
@@ -1624,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="30"/>
@@ -1647,13 +1653,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="31">
         <v>10.49</v>
@@ -1676,10 +1682,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="30"/>
@@ -1768,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" s="31">
         <v>1230</v>
@@ -1792,7 +1798,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="37" t="s">
@@ -1812,7 +1818,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="37" t="s">
@@ -1832,7 +1838,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="37" t="s">
@@ -1905,6 +1911,9 @@
     <hyperlink ref="F5" r:id="rId35" display="验真"/>
     <hyperlink ref="F6" r:id="rId36" display="验真"/>
     <hyperlink ref="F7" r:id="rId37" display="验真"/>
+    <hyperlink ref="D9" r:id="rId38" display="行程单"/>
+    <hyperlink ref="H9" r:id="rId39" display="9.92"/>
+    <hyperlink ref="E9" r:id="rId40" display="10.74"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>编号</t>
   </si>
@@ -894,16 +894,16 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1329,7 +1329,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="J3" s="43">
         <f>SUM(I3:I15)</f>
-        <v>5456.38</v>
+        <v>5467.74</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -1574,7 +1574,9 @@
         <v>9.92</v>
       </c>
       <c r="J9" s="45"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
@@ -1587,16 +1589,20 @@
       <c r="C10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="30"/>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="30">
+        <v>11.36</v>
+      </c>
       <c r="F10" s="32"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="30">
+        <v>11.36</v>
+      </c>
       <c r="I10" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="8"/>
@@ -1606,13 +1612,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="30"/>
       <c r="F11" s="33"/>
       <c r="G11" s="30"/>
@@ -1629,13 +1635,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="30"/>
       <c r="F12" s="33"/>
       <c r="G12" s="30"/>
@@ -1652,13 +1658,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="31">
@@ -1681,13 +1687,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="30"/>
       <c r="F14" s="34"/>
       <c r="G14" s="35"/>
@@ -1704,11 +1710,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="30"/>
       <c r="F15" s="33"/>
       <c r="G15" s="30"/>
@@ -1725,13 +1731,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="42">
@@ -1746,13 +1752,13 @@
         <f>ROW()-2</f>
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="42">
@@ -1876,44 +1882,46 @@
     <hyperlink ref="C10" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C11" r:id="rId6" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C13" r:id="rId7" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C12" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C14" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D10" r:id="rId8" display="订单"/>
-    <hyperlink ref="C18" r:id="rId9" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
-    <hyperlink ref="D18" r:id="rId10" display="行程单"/>
-    <hyperlink ref="D19" r:id="rId11" display="行程单"/>
-    <hyperlink ref="D20" r:id="rId12" display="行程单"/>
-    <hyperlink ref="D21" r:id="rId13" display="行程单"/>
-    <hyperlink ref="F18" r:id="rId14" display="验真"/>
-    <hyperlink ref="F19" r:id="rId15" display="验真"/>
-    <hyperlink ref="F20" r:id="rId16" display="验真"/>
-    <hyperlink ref="F21" r:id="rId17" display="验真"/>
-    <hyperlink ref="E18" r:id="rId18" display="1230"/>
-    <hyperlink ref="D13" r:id="rId19" display="行程单"/>
-    <hyperlink ref="E13" r:id="rId20" display="10.49"/>
-    <hyperlink ref="H13" r:id="rId21" display="10.49"/>
+    <hyperlink ref="C12" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C14" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D10" r:id="rId9" display="行程单"/>
+    <hyperlink ref="C18" r:id="rId10" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
+    <hyperlink ref="D18" r:id="rId11" display="行程单"/>
+    <hyperlink ref="D19" r:id="rId12" display="行程单"/>
+    <hyperlink ref="D20" r:id="rId13" display="行程单"/>
+    <hyperlink ref="D21" r:id="rId14" display="行程单"/>
+    <hyperlink ref="F18" r:id="rId15" display="验真"/>
+    <hyperlink ref="F19" r:id="rId16" display="验真"/>
+    <hyperlink ref="F20" r:id="rId17" display="验真"/>
+    <hyperlink ref="F21" r:id="rId18" display="验真"/>
+    <hyperlink ref="E18" r:id="rId19" display="1230"/>
+    <hyperlink ref="D13" r:id="rId20" display="行程单"/>
+    <hyperlink ref="E13" r:id="rId21" display="10.49"/>
+    <hyperlink ref="H13" r:id="rId22" display="10.49"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId22" display="行程单:郝旭光"/>
-    <hyperlink ref="D5" r:id="rId23" display="行程单:成志远"/>
-    <hyperlink ref="D6" r:id="rId24" display="行程单:张嘉佳"/>
-    <hyperlink ref="D7" r:id="rId25" display="行程单:傅琦玮"/>
-    <hyperlink ref="E4:E7" r:id="rId26" display="5199.97"/>
-    <hyperlink ref="C4:C7" r:id="rId27" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="G4:G7" r:id="rId28" display="236"/>
-    <hyperlink ref="C4:C7" r:id="rId29" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="H4" r:id="rId30" display="59"/>
-    <hyperlink ref="H5" r:id="rId31" display="59"/>
-    <hyperlink ref="H6" r:id="rId32" display="59"/>
-    <hyperlink ref="H7" r:id="rId33" display="59"/>
-    <hyperlink ref="F4" r:id="rId34" display="验真"/>
-    <hyperlink ref="F5" r:id="rId35" display="验真"/>
-    <hyperlink ref="F6" r:id="rId36" display="验真"/>
-    <hyperlink ref="F7" r:id="rId37" display="验真"/>
-    <hyperlink ref="D9" r:id="rId38" display="行程单"/>
-    <hyperlink ref="H9" r:id="rId39" display="9.92"/>
-    <hyperlink ref="E9" r:id="rId40" display="10.74"/>
+    <hyperlink ref="D4" r:id="rId23" display="行程单:郝旭光"/>
+    <hyperlink ref="D5" r:id="rId24" display="行程单:成志远"/>
+    <hyperlink ref="D6" r:id="rId25" display="行程单:张嘉佳"/>
+    <hyperlink ref="D7" r:id="rId26" display="行程单:傅琦玮"/>
+    <hyperlink ref="E4:E7" r:id="rId27" display="5199.97"/>
+    <hyperlink ref="C4:C7" r:id="rId28" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="G4:G7" r:id="rId29" display="236"/>
+    <hyperlink ref="C4:C7" r:id="rId30" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="H4" r:id="rId31" display="59"/>
+    <hyperlink ref="H5" r:id="rId32" display="59"/>
+    <hyperlink ref="H6" r:id="rId33" display="59"/>
+    <hyperlink ref="H7" r:id="rId34" display="59"/>
+    <hyperlink ref="F4" r:id="rId35" display="验真"/>
+    <hyperlink ref="F5" r:id="rId36" display="验真"/>
+    <hyperlink ref="F6" r:id="rId37" display="验真"/>
+    <hyperlink ref="F7" r:id="rId38" display="验真"/>
+    <hyperlink ref="D9" r:id="rId39" display="行程单"/>
+    <hyperlink ref="H9" r:id="rId40" display="9.92"/>
+    <hyperlink ref="E9" r:id="rId41" display="10.74"/>
+    <hyperlink ref="E10" r:id="rId42" display="11.36"/>
+    <hyperlink ref="H10" r:id="rId43" display="11.36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>编号</t>
   </si>
@@ -1329,7 +1329,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1605,7 +1605,9 @@
         <v>11.36</v>
       </c>
       <c r="J10" s="45"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>编号</t>
   </si>
@@ -903,6 +903,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -928,9 +931,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1329,7 +1329,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1407,17 +1407,17 @@
         <v>12</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="42">
         <f>IF(E3&lt;H3,E3,H3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="43">
         <f>SUM(I3:I15)</f>
-        <v>5467.74</v>
+        <v>5481.23</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -1435,16 +1435,16 @@
       <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="21">
         <v>5199.97</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="31">
         <v>236</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="21">
         <v>59</v>
       </c>
       <c r="I4" s="44">
@@ -1467,7 +1467,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="31"/>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="31"/>
@@ -1489,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="31"/>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="31"/>
@@ -1511,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="31"/>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="31"/>
@@ -1534,10 +1534,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="42">
         <f t="shared" ref="I8:I21" si="1">IF(E8&lt;H8,E8,H8)</f>
         <v>0</v>
@@ -1561,12 +1561,12 @@
       <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="21">
         <v>10.74</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="30">
+      <c r="F9" s="30"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="21">
         <v>9.92</v>
       </c>
       <c r="I9" s="42">
@@ -1592,12 +1592,12 @@
       <c r="D10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="21">
         <v>11.36</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30">
+      <c r="G10" s="21"/>
+      <c r="H10" s="21">
         <v>11.36</v>
       </c>
       <c r="I10" s="42">
@@ -1621,10 +1621,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="33"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1643,14 +1643,20 @@
       <c r="C12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21">
+        <v>13.49</v>
+      </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21">
+        <v>13.49</v>
+      </c>
       <c r="I12" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.49</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="8"/>
@@ -1696,7 +1702,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="34"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -1716,11 +1722,11 @@
         <v>27</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1736,7 +1742,7 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="18"/>
       <c r="E16" s="36"/>
       <c r="F16" s="18"/>
@@ -1747,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="45"/>
-      <c r="K16" s="22"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -1757,7 +1763,7 @@
       <c r="B17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="18"/>
       <c r="E17" s="36"/>
       <c r="F17" s="18"/>
@@ -1768,17 +1774,17 @@
         <v>0</v>
       </c>
       <c r="J17" s="48"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="23">
+      <c r="A18" s="24">
         <f>ROW()-2</f>
         <v>16</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -1797,12 +1803,12 @@
         <v>0</v>
       </c>
       <c r="J18" s="49"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -1820,9 +1826,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -1840,9 +1846,9 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -1885,45 +1891,48 @@
     <hyperlink ref="C11" r:id="rId6" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C13" r:id="rId7" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C12" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C14" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D10" r:id="rId9" display="行程单"/>
-    <hyperlink ref="C18" r:id="rId10" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
-    <hyperlink ref="D18" r:id="rId11" display="行程单"/>
-    <hyperlink ref="D19" r:id="rId12" display="行程单"/>
-    <hyperlink ref="D20" r:id="rId13" display="行程单"/>
-    <hyperlink ref="D21" r:id="rId14" display="行程单"/>
-    <hyperlink ref="F18" r:id="rId15" display="验真"/>
-    <hyperlink ref="F19" r:id="rId16" display="验真"/>
-    <hyperlink ref="F20" r:id="rId17" display="验真"/>
-    <hyperlink ref="F21" r:id="rId18" display="验真"/>
-    <hyperlink ref="E18" r:id="rId19" display="1230"/>
-    <hyperlink ref="D13" r:id="rId20" display="行程单"/>
-    <hyperlink ref="E13" r:id="rId21" display="10.49"/>
-    <hyperlink ref="H13" r:id="rId22" display="10.49"/>
+    <hyperlink ref="C14" r:id="rId9" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D10" r:id="rId10" display="行程单"/>
+    <hyperlink ref="C18" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
+    <hyperlink ref="D18" r:id="rId12" display="行程单"/>
+    <hyperlink ref="D19" r:id="rId13" display="行程单"/>
+    <hyperlink ref="D20" r:id="rId14" display="行程单"/>
+    <hyperlink ref="D21" r:id="rId15" display="行程单"/>
+    <hyperlink ref="F18" r:id="rId16" display="验真"/>
+    <hyperlink ref="F19" r:id="rId17" display="验真"/>
+    <hyperlink ref="F20" r:id="rId18" display="验真"/>
+    <hyperlink ref="F21" r:id="rId19" display="验真"/>
+    <hyperlink ref="E18" r:id="rId20" display="1230"/>
+    <hyperlink ref="D13" r:id="rId21" display="行程单"/>
+    <hyperlink ref="E13" r:id="rId22" display="10.49"/>
+    <hyperlink ref="H13" r:id="rId23" display="10.49"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId23" display="行程单:郝旭光"/>
-    <hyperlink ref="D5" r:id="rId24" display="行程单:成志远"/>
-    <hyperlink ref="D6" r:id="rId25" display="行程单:张嘉佳"/>
-    <hyperlink ref="D7" r:id="rId26" display="行程单:傅琦玮"/>
-    <hyperlink ref="E4:E7" r:id="rId27" display="5199.97"/>
-    <hyperlink ref="C4:C7" r:id="rId28" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="G4:G7" r:id="rId29" display="236"/>
-    <hyperlink ref="C4:C7" r:id="rId30" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="H4" r:id="rId31" display="59"/>
-    <hyperlink ref="H5" r:id="rId32" display="59"/>
-    <hyperlink ref="H6" r:id="rId33" display="59"/>
-    <hyperlink ref="H7" r:id="rId34" display="59"/>
-    <hyperlink ref="F4" r:id="rId35" display="验真"/>
-    <hyperlink ref="F5" r:id="rId36" display="验真"/>
-    <hyperlink ref="F6" r:id="rId37" display="验真"/>
-    <hyperlink ref="F7" r:id="rId38" display="验真"/>
-    <hyperlink ref="D9" r:id="rId39" display="行程单"/>
-    <hyperlink ref="H9" r:id="rId40" display="9.92"/>
-    <hyperlink ref="E9" r:id="rId41" display="10.74"/>
-    <hyperlink ref="E10" r:id="rId42" display="11.36"/>
-    <hyperlink ref="H10" r:id="rId43" display="11.36"/>
+    <hyperlink ref="D4" r:id="rId24" display="行程单:郝旭光"/>
+    <hyperlink ref="D5" r:id="rId25" display="行程单:成志远"/>
+    <hyperlink ref="D6" r:id="rId26" display="行程单:张嘉佳"/>
+    <hyperlink ref="D7" r:id="rId27" display="行程单:傅琦玮"/>
+    <hyperlink ref="E4:E7" r:id="rId28" display="5199.97"/>
+    <hyperlink ref="C4:C7" r:id="rId29" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="G4:G7" r:id="rId30" display="236"/>
+    <hyperlink ref="C4:C7" r:id="rId31" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="H4" r:id="rId32" display="59"/>
+    <hyperlink ref="H5" r:id="rId33" display="59"/>
+    <hyperlink ref="H6" r:id="rId34" display="59"/>
+    <hyperlink ref="H7" r:id="rId35" display="59"/>
+    <hyperlink ref="F4" r:id="rId36" display="验真"/>
+    <hyperlink ref="F5" r:id="rId37" display="验真"/>
+    <hyperlink ref="F6" r:id="rId38" display="验真"/>
+    <hyperlink ref="F7" r:id="rId39" display="验真"/>
+    <hyperlink ref="D9" r:id="rId40" display="行程单"/>
+    <hyperlink ref="H9" r:id="rId41" display="9.92"/>
+    <hyperlink ref="E9" r:id="rId42" display="10.74"/>
+    <hyperlink ref="E10" r:id="rId43" display="11.36"/>
+    <hyperlink ref="H10" r:id="rId44" display="11.36"/>
+    <hyperlink ref="D12" r:id="rId45" display="行程单"/>
+    <hyperlink ref="E12" r:id="rId46" display="13.49"/>
+    <hyperlink ref="H12" r:id="rId47" display="13.49"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>编号</t>
   </si>
@@ -901,10 +901,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1329,7 +1329,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="J3" s="43">
         <f>SUM(I3:I15)</f>
-        <v>5481.23</v>
+        <v>5493.19</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -1435,16 +1435,16 @@
       <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>5199.97</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="31">
         <v>236</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>59</v>
       </c>
       <c r="I4" s="44">
@@ -1467,7 +1467,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="31"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="31"/>
@@ -1489,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="31"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="31"/>
@@ -1511,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="31"/>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="31"/>
@@ -1561,12 +1561,12 @@
       <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>10.74</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>9.92</v>
       </c>
       <c r="I9" s="42">
@@ -1592,12 +1592,12 @@
       <c r="D10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>11.36</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20">
         <v>11.36</v>
       </c>
       <c r="I10" s="42">
@@ -1620,14 +1620,20 @@
       <c r="C11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20">
+        <v>11.96</v>
+      </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20">
+        <v>11.96</v>
+      </c>
       <c r="I11" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.96</v>
       </c>
       <c r="J11" s="45"/>
       <c r="K11" s="8"/>
@@ -1643,15 +1649,15 @@
       <c r="C12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>13.49</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20">
         <v>13.49</v>
       </c>
       <c r="I12" s="42">
@@ -1672,7 +1678,7 @@
       <c r="C13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="31">
@@ -1701,8 +1707,8 @@
       <c r="C14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="34"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -1723,10 +1729,10 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1933,6 +1939,9 @@
     <hyperlink ref="D12" r:id="rId45" display="行程单"/>
     <hyperlink ref="E12" r:id="rId46" display="13.49"/>
     <hyperlink ref="H12" r:id="rId47" display="13.49"/>
+    <hyperlink ref="D11" r:id="rId48" display="行程单"/>
+    <hyperlink ref="E11" r:id="rId49" display="11.96"/>
+    <hyperlink ref="H11" r:id="rId50" display="11.96"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>编号</t>
   </si>
@@ -100,16 +100,22 @@
     <t>2024-08-21</t>
   </si>
   <si>
-    <t>2024-08-22</t>
-  </si>
-  <si>
     <t>2024-08-23</t>
   </si>
   <si>
+    <t>瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮</t>
+  </si>
+  <si>
+    <t>成志远</t>
+  </si>
+  <si>
     <t>航班-哈尔滨太平-海口美兰:郝旭光</t>
   </si>
   <si>
     <t>航班-哈尔滨太平-海口美兰:傅琦玮</t>
+  </si>
+  <si>
+    <t>傅琦玮</t>
   </si>
   <si>
     <t>航班-哈尔滨太平-海口美兰:成志远</t>
@@ -123,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -174,7 +180,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,92 +247,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,22 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,103 +330,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,86 +514,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -571,15 +577,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -595,8 +592,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +622,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -626,21 +641,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -657,20 +657,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,94 +691,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,56 +787,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,9 +882,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,25 +900,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,27 +915,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,10 +963,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,12 +1306,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1345,7 +1327,7 @@
     <col min="9" max="9" width="7.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="7" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.36666666666667" style="2" customWidth="1"/>
     <col min="13" max="25" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1374,10 +1356,10 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1392,8 +1374,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
@@ -1407,17 +1389,17 @@
         <v>12</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="42">
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="36">
         <f>IF(E3&lt;H3,E3,H3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="43">
-        <f>SUM(I3:I15)</f>
-        <v>5493.19</v>
+      <c r="J3" s="37">
+        <f>SUM(I3:I19)</f>
+        <v>8095.19</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -1435,23 +1417,23 @@
       <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>5199.97</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="19">
         <v>236</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>59</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="38">
         <f>SUM(E4,IF(G4&lt;SUM(H4:H7),G4,SUM(H4:H7)))</f>
         <v>5435.97</v>
       </c>
-      <c r="J4" s="45"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="11" t="s">
         <v>15</v>
       </c>
@@ -1462,20 +1444,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19">
         <v>59</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="45"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11">
@@ -1484,20 +1466,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19">
         <v>59</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11">
@@ -1505,22 +1487,22 @@
         <f>ROW()-2</f>
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <v>59</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
@@ -1534,15 +1516,15 @@
         <v>19</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="42">
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="36">
         <f t="shared" ref="I8:I21" si="1">IF(E8&lt;H8,E8,H8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="8" t="s">
         <v>20</v>
       </c>
@@ -1561,20 +1543,20 @@
       <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>10.74</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="20">
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="19">
         <v>9.92</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="36">
         <f t="shared" si="1"/>
         <v>9.92</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1586,304 +1568,284 @@
       <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>11.36</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20">
+      <c r="F10" s="26"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19">
         <v>11.36</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="36">
         <f t="shared" si="1"/>
         <v>11.36</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>11.96</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20">
+      <c r="F11" s="27"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19">
         <v>11.96</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="36">
         <f t="shared" si="1"/>
         <v>11.96</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>13.49</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20">
+      <c r="F12" s="27"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19">
         <v>13.49</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="36">
         <f t="shared" si="1"/>
         <v>13.49</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="19">
         <v>10.49</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31">
+      <c r="F13" s="27"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19">
         <v>10.49</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="36">
         <f t="shared" si="1"/>
         <v>10.49</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="42">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19">
+        <v>12.37</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="8"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="42">
+      <c r="C15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="42">
+      <c r="C16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1230</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="36">
+        <f>E16</f>
+        <v>1230</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1372</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31">
+        <v>72</v>
+      </c>
+      <c r="I17" s="36">
+        <f>E17</f>
+        <v>1372</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="23"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="43"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7">
-        <f>ROW()-2</f>
-        <v>15</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="42">
+    <row r="19" spans="1:11">
+      <c r="A19" s="7"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="23"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="43"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="24">
-        <f>ROW()-2</f>
-        <v>16</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="31">
-        <v>1230</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="27"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="27"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="27"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="20" spans="11:11">
+      <c r="K20" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A18:A21"/>
+  <mergeCells count="10">
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J3:J18"/>
+    <mergeCell ref="J3:J16"/>
     <mergeCell ref="K4:K7"/>
+    <mergeCell ref="K9:K14"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:K3 I8:I21 I4 A5:A18 A4:B4">
+  <conditionalFormatting sqref="A3:K3 I8:I19 A4:B4 A5:A16 I4">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -1899,16 +1861,16 @@
     <hyperlink ref="C12" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C14" r:id="rId9" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="D10" r:id="rId10" display="行程单"/>
-    <hyperlink ref="C18" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
-    <hyperlink ref="D18" r:id="rId12" display="行程单"/>
-    <hyperlink ref="D19" r:id="rId13" display="行程单"/>
-    <hyperlink ref="D20" r:id="rId14" display="行程单"/>
-    <hyperlink ref="D21" r:id="rId15" display="行程单"/>
-    <hyperlink ref="F18" r:id="rId16" display="验真"/>
-    <hyperlink ref="F19" r:id="rId17" display="验真"/>
-    <hyperlink ref="F20" r:id="rId18" display="验真"/>
-    <hyperlink ref="F21" r:id="rId19" display="验真"/>
-    <hyperlink ref="E18" r:id="rId20" display="1230"/>
+    <hyperlink ref="C16" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
+    <hyperlink ref="D16" r:id="rId12" display="行程单"/>
+    <hyperlink ref="D17" r:id="rId13" display="行程单"/>
+    <hyperlink ref="D18" r:id="rId14" display="行程单"/>
+    <hyperlink ref="D19" r:id="rId15" display="行程单"/>
+    <hyperlink ref="F16" r:id="rId16" display="验真"/>
+    <hyperlink ref="F17" r:id="rId17" display="验真"/>
+    <hyperlink ref="F18" r:id="rId18" display="验真"/>
+    <hyperlink ref="F19" r:id="rId19" display="验真"/>
+    <hyperlink ref="E16" r:id="rId20" display="1230"/>
     <hyperlink ref="D13" r:id="rId21" display="行程单"/>
     <hyperlink ref="E13" r:id="rId22" display="10.49"/>
     <hyperlink ref="H13" r:id="rId23" display="10.49"/>
@@ -1942,6 +1904,10 @@
     <hyperlink ref="D11" r:id="rId48" display="行程单"/>
     <hyperlink ref="E11" r:id="rId49" display="11.96"/>
     <hyperlink ref="H11" r:id="rId50" display="11.96"/>
+    <hyperlink ref="E14" r:id="rId51" display="12.37"/>
+    <hyperlink ref="C17" r:id="rId52" display="航班-哈尔滨太平-海口美兰:傅琦玮"/>
+    <hyperlink ref="E17" r:id="rId53" display="1372"/>
+    <hyperlink ref="H17" r:id="rId54" display="72"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>编号</t>
   </si>
@@ -79,7 +79,10 @@
     <t>哈尔滨太平-哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮</t>
   </si>
   <si>
-    <t>张嘉佳</t>
+    <t>哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮</t>
+  </si>
+  <si>
+    <t>美团订单</t>
   </si>
   <si>
     <t>2024-08-19</t>
@@ -129,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -187,12 +190,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -200,17 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,29 +266,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -254,57 +304,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,31 +333,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,151 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,11 +601,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,30 +645,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,94 +694,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,56 +790,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +918,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -930,9 +936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,12 +967,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,12 +1303,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1379,7 +1376,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1398,14 +1395,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="37">
-        <f>SUM(I3:I19)</f>
-        <v>8095.19</v>
+        <f>SUM(I3:I20)</f>
+        <v>12256.74</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1440,7 +1437,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="14"/>
@@ -1462,7 +1459,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="14"/>
@@ -1484,7 +1481,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="15"/>
@@ -1506,7 +1503,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
-        <f t="shared" ref="A8:A17" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1516,17 +1513,21 @@
         <v>19</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="19">
+        <v>151</v>
+      </c>
       <c r="F8" s="25"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="26">
+        <v>151</v>
+      </c>
       <c r="I8" s="36">
-        <f t="shared" ref="I8:I21" si="1">IF(E8&lt;H8,E8,H8)</f>
-        <v>0</v>
+        <f>IF(E8&lt;H8,E8,H8)</f>
+        <v>151</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1535,25 +1536,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="19">
-        <v>10.74</v>
-      </c>
-      <c r="F9" s="25"/>
+        <v>4010.55</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="24"/>
       <c r="H9" s="19">
-        <v>9.92</v>
+        <v>4010.55</v>
       </c>
       <c r="I9" s="36">
-        <f t="shared" si="1"/>
-        <v>9.92</v>
+        <f>IF(E9&lt;H9,E9,H9)</f>
+        <v>4010.55</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="11" t="s">
@@ -1562,250 +1565,259 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A10:A18" si="1">ROW()-2</f>
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="E10" s="19">
-        <v>11.36</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="19"/>
+        <v>10.74</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="19">
-        <v>11.36</v>
+        <v>9.92</v>
       </c>
       <c r="I10" s="36">
-        <f t="shared" si="1"/>
-        <v>11.36</v>
+        <f t="shared" ref="I10:I22" si="2">IF(E10&lt;H10,E10,H10)</f>
+        <v>9.92</v>
       </c>
       <c r="J10" s="39"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>23</v>
+      <c r="D11" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="19">
-        <v>11.96</v>
+        <v>11.36</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19">
-        <v>11.96</v>
+        <v>11.36</v>
       </c>
       <c r="I11" s="36">
-        <f t="shared" si="1"/>
-        <v>11.96</v>
+        <f t="shared" si="2"/>
+        <v>11.36</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="E12" s="19">
-        <v>13.49</v>
-      </c>
-      <c r="F12" s="27"/>
+        <v>11.96</v>
+      </c>
+      <c r="F12" s="28"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19">
-        <v>13.49</v>
+        <v>11.96</v>
       </c>
       <c r="I12" s="36">
-        <f t="shared" si="1"/>
-        <v>13.49</v>
+        <f t="shared" si="2"/>
+        <v>11.96</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>22</v>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="19">
-        <v>10.49</v>
-      </c>
-      <c r="F13" s="27"/>
+        <v>13.49</v>
+      </c>
+      <c r="F13" s="28"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19">
-        <v>10.49</v>
+        <v>13.49</v>
       </c>
       <c r="I13" s="36">
-        <f t="shared" si="1"/>
-        <v>10.49</v>
+        <f t="shared" si="2"/>
+        <v>13.49</v>
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="20"/>
       <c r="E14" s="19">
-        <v>12.37</v>
+        <v>10.49</v>
       </c>
       <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19">
+        <v>10.49</v>
+      </c>
       <c r="I14" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10.49</v>
       </c>
       <c r="J14" s="39"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19">
+        <v>12.37</v>
+      </c>
+      <c r="F15" s="29"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="39"/>
-      <c r="K15" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1230</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="36">
-        <f>E16</f>
-        <v>1230</v>
-      </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43" t="s">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="31">
-        <v>1372</v>
+        <v>24</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1230</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31">
-        <v>72</v>
-      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="36">
         <f>E17</f>
-        <v>1372</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="43" t="s">
-        <v>32</v>
+        <v>1230</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="23" t="s">
-        <v>33</v>
+      <c r="C18" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1372</v>
+      </c>
       <c r="F18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="19">
+        <v>72</v>
+      </c>
       <c r="I18" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="43"/>
+        <f>E18</f>
+        <v>1372</v>
+      </c>
+      <c r="J18" s="39"/>
+      <c r="K18" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
@@ -1814,38 +1826,60 @@
         <v>34</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="E19" s="31"/>
       <c r="F19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="44"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J3:J16"/>
+    <mergeCell ref="J3:J20"/>
     <mergeCell ref="K4:K7"/>
-    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="K10:K15"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:K3 I8:I19 A4:B4 A5:A16 I4">
+  <conditionalFormatting sqref="A3:K3 A4:B4 A5:A17 I8:I20 I4">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -1854,26 +1888,26 @@
     <hyperlink ref="C3" r:id="rId1" display="海师-美兰: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C4" r:id="rId2" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C8" r:id="rId3" display="哈尔滨太平-哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C9" r:id="rId4" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C10" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C11" r:id="rId6" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C13" r:id="rId7" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C12" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C14" r:id="rId9" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D10" r:id="rId10" display="行程单"/>
-    <hyperlink ref="C16" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
-    <hyperlink ref="D16" r:id="rId12" display="行程单"/>
-    <hyperlink ref="D17" r:id="rId13" display="行程单"/>
-    <hyperlink ref="D18" r:id="rId14" display="行程单"/>
-    <hyperlink ref="D19" r:id="rId15" display="行程单"/>
-    <hyperlink ref="F16" r:id="rId16" display="验真"/>
-    <hyperlink ref="F17" r:id="rId17" display="验真"/>
-    <hyperlink ref="F18" r:id="rId18" display="验真"/>
-    <hyperlink ref="F19" r:id="rId19" display="验真"/>
-    <hyperlink ref="E16" r:id="rId20" display="1230"/>
-    <hyperlink ref="D13" r:id="rId21" display="行程单"/>
-    <hyperlink ref="E13" r:id="rId22" display="10.49"/>
-    <hyperlink ref="H13" r:id="rId23" display="10.49"/>
+    <hyperlink ref="C10" r:id="rId4" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C11" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C12" r:id="rId6" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C14" r:id="rId7" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C13" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C15" r:id="rId9" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D11" r:id="rId10" display="行程单"/>
+    <hyperlink ref="C17" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
+    <hyperlink ref="D17" r:id="rId12" display="行程单"/>
+    <hyperlink ref="D18" r:id="rId13" display="行程单"/>
+    <hyperlink ref="D19" r:id="rId14" display="行程单"/>
+    <hyperlink ref="D20" r:id="rId15" display="行程单"/>
+    <hyperlink ref="F17" r:id="rId16" display="验真"/>
+    <hyperlink ref="F18" r:id="rId17" display="验真"/>
+    <hyperlink ref="F19" r:id="rId18" display="验真"/>
+    <hyperlink ref="F20" r:id="rId19" display="验真"/>
+    <hyperlink ref="E17" r:id="rId20" display="1230"/>
+    <hyperlink ref="D14" r:id="rId21" display="行程单"/>
+    <hyperlink ref="E14" r:id="rId22" display="10.49"/>
+    <hyperlink ref="H14" r:id="rId23" display="10.49"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="C7" r:id="rId2"/>
@@ -1893,21 +1927,28 @@
     <hyperlink ref="F5" r:id="rId37" display="验真"/>
     <hyperlink ref="F6" r:id="rId38" display="验真"/>
     <hyperlink ref="F7" r:id="rId39" display="验真"/>
-    <hyperlink ref="D9" r:id="rId40" display="行程单"/>
-    <hyperlink ref="H9" r:id="rId41" display="9.92"/>
-    <hyperlink ref="E9" r:id="rId42" display="10.74"/>
-    <hyperlink ref="E10" r:id="rId43" display="11.36"/>
-    <hyperlink ref="H10" r:id="rId44" display="11.36"/>
-    <hyperlink ref="D12" r:id="rId45" display="行程单"/>
-    <hyperlink ref="E12" r:id="rId46" display="13.49"/>
-    <hyperlink ref="H12" r:id="rId47" display="13.49"/>
-    <hyperlink ref="D11" r:id="rId48" display="行程单"/>
-    <hyperlink ref="E11" r:id="rId49" display="11.96"/>
-    <hyperlink ref="H11" r:id="rId50" display="11.96"/>
-    <hyperlink ref="E14" r:id="rId51" display="12.37"/>
-    <hyperlink ref="C17" r:id="rId52" display="航班-哈尔滨太平-海口美兰:傅琦玮"/>
-    <hyperlink ref="E17" r:id="rId53" display="1372"/>
-    <hyperlink ref="H17" r:id="rId54" display="72"/>
+    <hyperlink ref="D10" r:id="rId40" display="行程单"/>
+    <hyperlink ref="H10" r:id="rId41" display="9.92"/>
+    <hyperlink ref="E10" r:id="rId42" display="10.74"/>
+    <hyperlink ref="E11" r:id="rId43" display="11.36"/>
+    <hyperlink ref="H11" r:id="rId44" display="11.36"/>
+    <hyperlink ref="D13" r:id="rId45" display="行程单"/>
+    <hyperlink ref="E13" r:id="rId46" display="13.49"/>
+    <hyperlink ref="H13" r:id="rId47" display="13.49"/>
+    <hyperlink ref="D12" r:id="rId48" display="行程单"/>
+    <hyperlink ref="E12" r:id="rId49" display="11.96"/>
+    <hyperlink ref="H12" r:id="rId50" display="11.96"/>
+    <hyperlink ref="E15" r:id="rId51" display="12.37"/>
+    <hyperlink ref="C18" r:id="rId52" display="航班-哈尔滨太平-海口美兰:傅琦玮"/>
+    <hyperlink ref="E18" r:id="rId53" display="1372"/>
+    <hyperlink ref="H18" r:id="rId54" display="72"/>
+    <hyperlink ref="E8" r:id="rId55" display="151"/>
+    <hyperlink ref="C9" r:id="rId56" display="哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D9" r:id="rId57" display="美团订单"/>
+    <hyperlink ref="E9" r:id="rId58" display="4010.55"/>
+    <hyperlink ref="H9" r:id="rId59" display="4010.55"/>
+    <hyperlink ref="F9" r:id="rId60" display="验真"/>
+    <hyperlink ref="H8" r:id="rId61" display="151"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -1308,7 +1308,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>编号</t>
   </si>
@@ -58,6 +58,9 @@
     <t>海师-美兰: 郝旭光、成志远、张嘉佳、傅琦玮</t>
   </si>
   <si>
+    <t>成志远</t>
+  </si>
+  <si>
     <t>海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮</t>
-  </si>
-  <si>
-    <t>成志远</t>
   </si>
   <si>
     <t>航班-哈尔滨太平-海口美兰:郝旭光</t>
@@ -900,35 +900,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,7 +1308,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1386,19 +1386,21 @@
         <v>12</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="36">
         <f>IF(E3&lt;H3,E3,H3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="37">
         <f>SUM(I3:I20)</f>
-        <v>12256.74</v>
-      </c>
-      <c r="K3" s="8"/>
+        <v>12269.11</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7">
@@ -1409,10 +1411,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="19">
         <v>5199.97</v>
@@ -1432,7 +1434,7 @@
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1443,7 +1445,7 @@
       <c r="B5" s="14"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19" t="s">
@@ -1465,7 +1467,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
@@ -1487,7 +1489,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
@@ -1510,15 +1512,15 @@
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="19">
         <v>151</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="26">
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="25">
         <v>151</v>
       </c>
       <c r="I8" s="36">
@@ -1527,7 +1529,7 @@
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1539,10 +1541,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="19">
         <v>4010.55</v>
@@ -1550,7 +1552,7 @@
       <c r="F9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="19">
         <v>4010.55</v>
       </c>
@@ -1560,7 +1562,7 @@
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1569,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="19">
         <v>10.74</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="19">
         <v>9.92</v>
       </c>
@@ -1591,7 +1593,7 @@
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1600,18 +1602,18 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="19">
         <v>11.36</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19">
         <v>11.36</v>
@@ -1629,18 +1631,18 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="19">
         <v>11.96</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19">
         <v>11.96</v>
@@ -1658,18 +1660,18 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="E13" s="19">
         <v>13.49</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19">
         <v>13.49</v>
@@ -1687,18 +1689,18 @@
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="19">
         <v>10.49</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19">
         <v>10.49</v>
@@ -1716,21 +1718,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="20"/>
       <c r="E15" s="19">
         <v>12.37</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30">
+        <v>12.37</v>
+      </c>
       <c r="I15" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.37</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="15"/>
@@ -1741,10 +1747,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="21" t="s">
         <v>29</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="31"/>
@@ -1757,7 +1763,7 @@
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1766,13 +1772,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="19">
         <v>1230</v>
@@ -1788,17 +1794,17 @@
       </c>
       <c r="J17" s="39"/>
       <c r="K17" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="19">
         <v>1372</v>
@@ -1822,11 +1828,11 @@
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="13" t="s">
@@ -1844,11 +1850,11 @@
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="13" t="s">
@@ -1949,6 +1955,8 @@
     <hyperlink ref="H9" r:id="rId59" display="4010.55"/>
     <hyperlink ref="F9" r:id="rId60" display="验真"/>
     <hyperlink ref="H8" r:id="rId61" display="151"/>
+    <hyperlink ref="D15" r:id="rId62" display="行程单"/>
+    <hyperlink ref="H15" r:id="rId63" display="12.37"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -1308,7 +1308,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>编号</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>航班-哈尔滨太平-海口美兰:张嘉佳</t>
+  </si>
+  <si>
+    <t>张嘉佳</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +970,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,12 +1309,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1322,8 +1328,8 @@
     <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.7" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.525" style="2" customWidth="1"/>
     <col min="12" max="12" width="8.36666666666667" style="2" customWidth="1"/>
     <col min="13" max="25" width="9" style="2"/>
   </cols>
@@ -1871,6 +1877,51 @@
     </row>
     <row r="21" spans="11:11">
       <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="43">
+        <f>SUM(I4,I8,I9,I10:I15,I17)</f>
+        <v>10897.11</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="43">
+        <f>SUM(I3,I16,I19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="43">
+        <f>SUM(I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="43">
+        <f>SUM(I18)</f>
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="43">
+        <f>SUM(K22:K25)</f>
+        <v>12269.11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>编号</t>
   </si>
@@ -58,6 +58,9 @@
     <t>海师-美兰: 郝旭光、成志远、张嘉佳、傅琦玮</t>
   </si>
   <si>
+    <t>行程单</t>
+  </si>
+  <si>
     <t>成志远</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮</t>
-  </si>
-  <si>
-    <t>行程单</t>
   </si>
   <si>
     <t>哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮</t>
@@ -136,9 +136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -193,7 +193,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,52 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -260,66 +320,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -336,67 +336,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,115 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,17 +604,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,30 +618,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,157 +662,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,7 +873,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,15 +882,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -912,15 +912,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -930,9 +927,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,9 +964,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,7 +1305,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1359,10 +1350,10 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1377,8 +1368,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
@@ -1391,21 +1382,27 @@
       <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="36">
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="19">
+        <v>23.04</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="19">
+        <v>23.85</v>
+      </c>
+      <c r="I3" s="34">
         <f>IF(E3&lt;H3,E3,H3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="37">
+        <v>23.04</v>
+      </c>
+      <c r="J3" s="35">
         <f>SUM(I3:I20)</f>
-        <v>12269.11</v>
+        <v>12292.15</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1417,10 +1414,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13" t="s">
         <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="19">
         <v>5199.97</v>
@@ -1434,13 +1431,13 @@
       <c r="H4" s="19">
         <v>59</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="36">
         <f>SUM(E4,IF(G4&lt;SUM(H4:H7),G4,SUM(H4:H7)))</f>
         <v>5435.97</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1448,10 +1445,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19" t="s">
@@ -1461,19 +1458,19 @@
       <c r="H5" s="19">
         <v>59</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="14"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
-        <v>18</v>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
@@ -1483,19 +1480,19 @@
       <c r="H6" s="19">
         <v>59</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="14"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
@@ -1505,9 +1502,9 @@
       <c r="H7" s="19">
         <v>59</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="15"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
@@ -1518,24 +1515,24 @@
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="19">
         <v>151</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="25">
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="19">
         <v>151</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="34">
         <f>IF(E8&lt;H8,E8,H8)</f>
         <v>151</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1547,10 +1544,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13" t="s">
         <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="19">
         <v>4010.55</v>
@@ -1558,17 +1555,17 @@
       <c r="F9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="19">
         <v>4010.55</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="34">
         <f>IF(E9&lt;H9,E9,H9)</f>
         <v>4010.55</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1577,29 +1574,29 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="13" t="s">
         <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="19">
         <v>10.74</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="19">
         <v>9.92</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="34">
         <f t="shared" ref="I10:I22" si="2">IF(E10&lt;H10,E10,H10)</f>
         <v>9.92</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1608,28 +1605,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>25</v>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="E11" s="19">
         <v>11.36</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19">
         <v>11.36</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="34">
         <f t="shared" si="2"/>
         <v>11.36</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7">
@@ -1640,25 +1637,25 @@
         <v>27</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E12" s="19">
         <v>11.96</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19">
         <v>11.96</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="34">
         <f t="shared" si="2"/>
         <v>11.96</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7">
@@ -1672,22 +1669,22 @@
         <v>26</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E13" s="19">
         <v>13.49</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19">
         <v>13.49</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="34">
         <f t="shared" si="2"/>
         <v>13.49</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="14"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7">
@@ -1698,25 +1695,25 @@
         <v>28</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E14" s="19">
         <v>10.49</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19">
         <v>10.49</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="34">
         <f t="shared" si="2"/>
         <v>10.49</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="14"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7">
@@ -1730,22 +1727,22 @@
         <v>26</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E15" s="19">
         <v>12.37</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30">
+      <c r="F15" s="27"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="28">
         <v>12.37</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <f t="shared" si="2"/>
         <v>12.37</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7">
@@ -1759,17 +1756,17 @@
         <v>30</v>
       </c>
       <c r="D16" s="17"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="36">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1783,24 +1780,24 @@
       <c r="C17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>25</v>
+      <c r="D17" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="E17" s="19">
         <v>1230</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="19"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="36">
+      <c r="H17" s="29"/>
+      <c r="I17" s="34">
         <f>E17</f>
         <v>1230</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1809,24 +1806,24 @@
       <c r="C18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>25</v>
+      <c r="D18" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="19">
         <v>1372</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="19">
         <v>72</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="34">
         <f>E18</f>
         <v>1372</v>
       </c>
-      <c r="J18" s="39"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="17" t="s">
         <v>33</v>
       </c>
@@ -1837,20 +1834,20 @@
       <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="13" t="s">
+      <c r="D19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="36">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="39"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11">
@@ -1859,20 +1856,20 @@
       <c r="C20" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="36">
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="42"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="11:11">
@@ -1880,27 +1877,27 @@
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="43">
+        <v>17</v>
+      </c>
+      <c r="K22" s="4">
         <f>SUM(I4,I8,I9,I10:I15,I17)</f>
         <v>10897.11</v>
       </c>
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="43">
+        <v>14</v>
+      </c>
+      <c r="K23" s="4">
         <f>SUM(I3,I16,I19)</f>
-        <v>0</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="24" spans="10:11">
       <c r="J24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="4">
         <f>SUM(I20)</f>
         <v>0</v>
       </c>
@@ -1909,7 +1906,7 @@
       <c r="J25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="4">
         <f>SUM(I18)</f>
         <v>1372</v>
       </c>
@@ -1918,9 +1915,9 @@
       <c r="J26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="4">
         <f>SUM(K22:K25)</f>
-        <v>12269.11</v>
+        <v>12292.15</v>
       </c>
     </row>
   </sheetData>
@@ -2008,6 +2005,9 @@
     <hyperlink ref="H8" r:id="rId61" display="151"/>
     <hyperlink ref="D15" r:id="rId62" display="行程单"/>
     <hyperlink ref="H15" r:id="rId63" display="12.37"/>
+    <hyperlink ref="D3" r:id="rId64" display="行程单"/>
+    <hyperlink ref="E3" r:id="rId65" display="23.04"/>
+    <hyperlink ref="H3" r:id="rId66" display="23.85"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>编号</t>
   </si>
@@ -134,11 +134,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -787,42 +788,42 @@
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,6 +875,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,9 +886,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,9 +913,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +938,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,7 +1315,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1350,10 +1360,10 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1368,12 +1378,12 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1385,131 +1395,121 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="22">
         <v>23.04</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="19">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="22">
         <v>23.85</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="37">
         <f>IF(E3&lt;H3,E3,H3)</f>
         <v>23.04</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="38">
         <f>SUM(I3:I20)</f>
-        <v>12292.15</v>
+        <v>12369.57</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7">
-        <f t="shared" si="0"/>
+      <c r="A4" s="11">
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="22">
         <v>5199.97</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="22">
         <v>236</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="22">
         <v>59</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="39">
         <f>SUM(E4,IF(G4&lt;SUM(H4:H7),G4,SUM(H4:H7)))</f>
         <v>5435.97</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22">
         <v>59</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22">
         <v>59</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="13"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22">
         <v>59</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="14"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
@@ -1517,61 +1517,59 @@
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="19">
+      <c r="D8" s="18"/>
+      <c r="E8" s="22">
         <v>151</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="19">
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="22">
         <v>151</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="37">
         <f>IF(E8&lt;H8,E8,H8)</f>
         <v>151</v>
       </c>
-      <c r="J8" s="37"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="22">
         <v>4010.55</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="19">
+      <c r="G9" s="26"/>
+      <c r="H9" s="22">
         <v>4010.55</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="37">
         <f>IF(E9&lt;H9,E9,H9)</f>
         <v>4010.55</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
-        <f t="shared" ref="A10:A18" si="1">ROW()-2</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>24</v>
@@ -1582,295 +1580,294 @@
       <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="22">
         <v>10.74</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="19">
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="22">
         <v>9.92</v>
       </c>
-      <c r="I10" s="34">
-        <f t="shared" ref="I10:I22" si="2">IF(E10&lt;H10,E10,H10)</f>
+      <c r="I10" s="37">
+        <f t="shared" ref="I10:I22" si="0">IF(E10&lt;H10,E10,H10)</f>
         <v>9.92</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="11" t="s">
+      <c r="J10" s="40"/>
+      <c r="K10" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="22">
         <v>11.36</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19">
+      <c r="F11" s="27"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22">
         <v>11.36</v>
       </c>
-      <c r="I11" s="34">
-        <f t="shared" si="2"/>
+      <c r="I11" s="37">
+        <f t="shared" si="0"/>
         <v>11.36</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="22">
         <v>11.96</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19">
+      <c r="F12" s="28"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22">
         <v>11.96</v>
       </c>
-      <c r="I12" s="34">
-        <f t="shared" si="2"/>
+      <c r="I12" s="37">
+        <f t="shared" si="0"/>
         <v>11.96</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="13"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="22">
         <v>13.49</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19">
+      <c r="F13" s="28"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22">
         <v>13.49</v>
       </c>
-      <c r="I13" s="34">
-        <f t="shared" si="2"/>
+      <c r="I13" s="37">
+        <f t="shared" si="0"/>
         <v>13.49</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="22">
         <v>10.49</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19">
+      <c r="F14" s="28"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22">
         <v>10.49</v>
       </c>
-      <c r="I14" s="34">
-        <f t="shared" si="2"/>
+      <c r="I14" s="37">
+        <f t="shared" si="0"/>
         <v>10.49</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7">
-        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="E15" s="22">
         <v>12.37</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="28">
+      <c r="F15" s="29"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="30">
         <v>12.37</v>
       </c>
-      <c r="I15" s="34">
-        <f t="shared" si="2"/>
+      <c r="I15" s="37">
+        <f t="shared" si="0"/>
         <v>12.37</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="14"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="17" t="s">
+      <c r="D16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="22">
+        <v>77.42</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32">
+        <v>87.1</v>
+      </c>
+      <c r="I16" s="37">
+        <f t="shared" si="0"/>
+        <v>77.42</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="22">
         <v>1230</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="34">
+      <c r="G17" s="22"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="37">
         <f>E17</f>
         <v>1230</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="17" t="s">
+      <c r="J17" s="40"/>
+      <c r="K17" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="22">
         <v>1372</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="19">
+      <c r="G18" s="31"/>
+      <c r="H18" s="22">
         <v>72</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="37">
         <f>E18</f>
         <v>1372</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="17" t="s">
+      <c r="J18" s="40"/>
+      <c r="K18" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="34">
-        <f t="shared" si="2"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="37">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="34">
-        <f t="shared" si="2"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="37">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="11:11">
       <c r="K21" s="1"/>
@@ -1890,7 +1887,7 @@
       </c>
       <c r="K23" s="4">
         <f>SUM(I3,I16,I19)</f>
-        <v>23.04</v>
+        <v>100.46</v>
       </c>
     </row>
     <row r="24" spans="10:11">
@@ -1917,11 +1914,12 @@
       </c>
       <c r="K26" s="4">
         <f>SUM(K22:K25)</f>
-        <v>12292.15</v>
+        <v>12369.57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B17:B20"/>
@@ -1933,7 +1931,7 @@
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="K10:K15"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:K3 A4:B4 A5:A17 I8:I20 I4">
+  <conditionalFormatting sqref="A3:K3 A4:B4 A8:A17 I8:I20 I4">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -2008,6 +2006,10 @@
     <hyperlink ref="D3" r:id="rId64" display="行程单"/>
     <hyperlink ref="E3" r:id="rId65" display="23.04"/>
     <hyperlink ref="H3" r:id="rId66" display="23.85"/>
+    <hyperlink ref="C16" r:id="rId67" display="瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D16" r:id="rId68" display="行程单"/>
+    <hyperlink ref="E16" r:id="rId69" display="77.42"/>
+    <hyperlink ref="H16" r:id="rId70" display="87.1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>编号</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>2024-08-23</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>海大-海师：郝旭光、成志远、张嘉佳、傅琦玮</t>
+  </si>
+  <si>
+    <t>发票行程单无法分割，统一到此处报销</t>
   </si>
   <si>
     <t>瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮</t>
@@ -843,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +922,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +949,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,6 +992,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1310,12 +1343,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1360,10 +1393,10 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1378,8 +1411,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
@@ -1398,18 +1431,18 @@
       <c r="E3" s="22">
         <v>23.04</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="22">
         <v>23.85</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="41">
         <f>IF(E3&lt;H3,E3,H3)</f>
         <v>23.04</v>
       </c>
-      <c r="J3" s="38">
-        <f>SUM(I3:I20)</f>
-        <v>12369.57</v>
+      <c r="J3" s="42">
+        <f>SUM(I3:I22)</f>
+        <v>12416.14</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>14</v>
@@ -1441,11 +1474,11 @@
       <c r="H4" s="22">
         <v>59</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="43">
         <f>SUM(E4,IF(G4&lt;SUM(H4:H7),G4,SUM(H4:H7)))</f>
         <v>5435.97</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1465,8 +1498,8 @@
       <c r="H5" s="22">
         <v>59</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="40"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11">
@@ -1484,8 +1517,8 @@
       <c r="H6" s="22">
         <v>59</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="40"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11">
@@ -1503,8 +1536,8 @@
       <c r="H7" s="22">
         <v>59</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11">
@@ -1521,16 +1554,16 @@
       <c r="E8" s="22">
         <v>151</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="22">
         <v>151</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="41">
         <f>IF(E8&lt;H8,E8,H8)</f>
         <v>151</v>
       </c>
-      <c r="J8" s="40"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
@@ -1554,15 +1587,15 @@
       <c r="F9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="22">
         <v>4010.55</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="41">
         <f>IF(E9&lt;H9,E9,H9)</f>
         <v>4010.55</v>
       </c>
-      <c r="J9" s="40"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1583,16 +1616,16 @@
       <c r="E10" s="22">
         <v>10.74</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="22">
         <v>9.92</v>
       </c>
-      <c r="I10" s="37">
-        <f t="shared" ref="I10:I22" si="0">IF(E10&lt;H10,E10,H10)</f>
+      <c r="I10" s="41">
+        <f>IF(E10&lt;H10,E10,H10)</f>
         <v>9.92</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="12" t="s">
         <v>17</v>
       </c>
@@ -1613,16 +1646,16 @@
       <c r="E11" s="22">
         <v>11.36</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22">
         <v>11.36</v>
       </c>
-      <c r="I11" s="37">
-        <f t="shared" si="0"/>
+      <c r="I11" s="41">
+        <f>IF(E11&lt;H11,E11,H11)</f>
         <v>11.36</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
@@ -1641,16 +1674,16 @@
       <c r="E12" s="22">
         <v>11.96</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22">
         <v>11.96</v>
       </c>
-      <c r="I12" s="37">
-        <f t="shared" si="0"/>
+      <c r="I12" s="41">
+        <f>IF(E12&lt;H12,E12,H12)</f>
         <v>11.96</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="44"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
@@ -1669,16 +1702,16 @@
       <c r="E13" s="22">
         <v>13.49</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22">
         <v>13.49</v>
       </c>
-      <c r="I13" s="37">
-        <f t="shared" si="0"/>
+      <c r="I13" s="41">
+        <f>IF(E13&lt;H13,E13,H13)</f>
         <v>13.49</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11">
@@ -1697,16 +1730,16 @@
       <c r="E14" s="22">
         <v>10.49</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22">
         <v>10.49</v>
       </c>
-      <c r="I14" s="37">
-        <f t="shared" si="0"/>
+      <c r="I14" s="41">
+        <f>IF(E14&lt;H14,E14,H14)</f>
         <v>10.49</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="44"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11">
@@ -1725,16 +1758,16 @@
       <c r="E15" s="22">
         <v>12.37</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="30">
+      <c r="H15" s="31">
         <v>12.37</v>
       </c>
-      <c r="I15" s="37">
-        <f t="shared" si="0"/>
+      <c r="I15" s="41">
+        <f>IF(E15&lt;H15,E15,H15)</f>
         <v>12.37</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11">
@@ -1745,110 +1778,114 @@
         <v>29</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="22">
-        <v>77.42</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32">
-        <v>87.1</v>
-      </c>
-      <c r="I16" s="37">
-        <f t="shared" si="0"/>
-        <v>77.42</v>
-      </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="20" t="s">
+        <v>22.78</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="33">
+        <v>46.57</v>
+      </c>
+      <c r="I16" s="47">
+        <f>IF(SUM(E16:E17)&lt;H16,SUM(E16:E17),H16)</f>
+        <v>46.57</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="7">
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22">
+        <v>23.79</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7">
+        <v>13</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1230</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="37">
-        <f>E17</f>
-        <v>1230</v>
-      </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23" t="s">
-        <v>32</v>
+      <c r="C18" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="22">
-        <v>1372</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="22">
-        <v>72</v>
-      </c>
-      <c r="I18" s="37">
-        <f>E18</f>
-        <v>1372</v>
-      </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="20" t="s">
-        <v>33</v>
-      </c>
+        <v>77.42</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36">
+        <v>87.1</v>
+      </c>
+      <c r="I18" s="41">
+        <f t="shared" ref="I18:I24" si="0">IF(E18&lt;H18,E18,H18)</f>
+        <v>77.42</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="7"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="7">
+        <v>14</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="22">
+        <v>1230</v>
+      </c>
       <c r="F19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="20"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="41">
+        <f>E19</f>
+        <v>1230</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7">
+        <v>15</v>
+      </c>
       <c r="B20" s="20"/>
       <c r="C20" s="24" t="s">
         <v>35</v>
@@ -1856,82 +1893,139 @@
       <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="22">
+        <v>1372</v>
+      </c>
       <c r="F20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="37">
+      <c r="G20" s="35"/>
+      <c r="H20" s="22">
+        <v>72</v>
+      </c>
+      <c r="I20" s="41">
+        <f>E20</f>
+        <v>1372</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7">
+        <v>16</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="4" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7">
         <v>17</v>
       </c>
-      <c r="K22" s="4">
-        <f>SUM(I4,I8,I9,I10:I15,I17)</f>
-        <v>10897.11</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="4">
-        <f>SUM(I3,I16,I19)</f>
-        <v>100.46</v>
-      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="51"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="10:11">
       <c r="J24" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K24" s="4">
-        <f>SUM(I20)</f>
-        <v>0</v>
+        <f>SUM(I4,I8,I9,I10:I15,I19)</f>
+        <v>10897.11</v>
       </c>
     </row>
     <row r="25" spans="10:11">
       <c r="J25" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K25" s="4">
-        <f>SUM(I18)</f>
-        <v>1372</v>
+        <f>SUM(I3,I16:I18,I21)</f>
+        <v>147.03</v>
       </c>
     </row>
     <row r="26" spans="10:11">
       <c r="J26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="4">
+        <f>SUM(I22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11">
+      <c r="J27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="4">
+        <f>SUM(I20)</f>
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="4">
-        <f>SUM(K22:K25)</f>
-        <v>12369.57</v>
+      <c r="K28" s="4">
+        <f>SUM(K24:K27)</f>
+        <v>12416.14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A17:A20"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J3:J20"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J3:J22"/>
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="K10:K15"/>
+    <mergeCell ref="K16:K18"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:K3 A4:B4 A8:A17 I8:I20 I4">
+  <conditionalFormatting sqref="A3:K3 A4:B4 A8:A19 I8:I16 I18:I22 I4">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -1947,16 +2041,16 @@
     <hyperlink ref="C13" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C15" r:id="rId9" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="D11" r:id="rId10" display="行程单"/>
-    <hyperlink ref="C17" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
-    <hyperlink ref="D17" r:id="rId12" display="行程单"/>
-    <hyperlink ref="D18" r:id="rId13" display="行程单"/>
-    <hyperlink ref="D19" r:id="rId14" display="行程单"/>
-    <hyperlink ref="D20" r:id="rId15" display="行程单"/>
-    <hyperlink ref="F17" r:id="rId16" display="验真"/>
-    <hyperlink ref="F18" r:id="rId17" display="验真"/>
-    <hyperlink ref="F19" r:id="rId18" display="验真"/>
-    <hyperlink ref="F20" r:id="rId19" display="验真"/>
-    <hyperlink ref="E17" r:id="rId20" display="1230"/>
+    <hyperlink ref="C19" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
+    <hyperlink ref="D19" r:id="rId12" display="行程单"/>
+    <hyperlink ref="D20" r:id="rId13" display="行程单"/>
+    <hyperlink ref="D21" r:id="rId14" display="行程单"/>
+    <hyperlink ref="D22" r:id="rId15" display="行程单"/>
+    <hyperlink ref="F19" r:id="rId16" display="验真"/>
+    <hyperlink ref="F20" r:id="rId17" display="验真"/>
+    <hyperlink ref="F21" r:id="rId18" display="验真"/>
+    <hyperlink ref="F22" r:id="rId19" display="验真"/>
+    <hyperlink ref="E19" r:id="rId20" display="1230"/>
     <hyperlink ref="D14" r:id="rId21" display="行程单"/>
     <hyperlink ref="E14" r:id="rId22" display="10.49"/>
     <hyperlink ref="H14" r:id="rId23" display="10.49"/>
@@ -1991,9 +2085,9 @@
     <hyperlink ref="E12" r:id="rId49" display="11.96"/>
     <hyperlink ref="H12" r:id="rId50" display="11.96"/>
     <hyperlink ref="E15" r:id="rId51" display="12.37"/>
-    <hyperlink ref="C18" r:id="rId52" display="航班-哈尔滨太平-海口美兰:傅琦玮"/>
-    <hyperlink ref="E18" r:id="rId53" display="1372"/>
-    <hyperlink ref="H18" r:id="rId54" display="72"/>
+    <hyperlink ref="C20" r:id="rId52" display="航班-哈尔滨太平-海口美兰:傅琦玮"/>
+    <hyperlink ref="E20" r:id="rId53" display="1372"/>
+    <hyperlink ref="H20" r:id="rId54" display="72"/>
     <hyperlink ref="E8" r:id="rId55" display="151"/>
     <hyperlink ref="C9" r:id="rId56" display="哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="D9" r:id="rId57" display="美团订单"/>
@@ -2006,10 +2100,16 @@
     <hyperlink ref="D3" r:id="rId64" display="行程单"/>
     <hyperlink ref="E3" r:id="rId65" display="23.04"/>
     <hyperlink ref="H3" r:id="rId66" display="23.85"/>
-    <hyperlink ref="C16" r:id="rId67" display="瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D16" r:id="rId68" display="行程单"/>
-    <hyperlink ref="E16" r:id="rId69" display="77.42"/>
-    <hyperlink ref="H16" r:id="rId70" display="87.1"/>
+    <hyperlink ref="C18" r:id="rId67" display="瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D18" r:id="rId68" display="行程单"/>
+    <hyperlink ref="E18" r:id="rId69" display="77.42"/>
+    <hyperlink ref="H18" r:id="rId70" display="87.1"/>
+    <hyperlink ref="C16" r:id="rId71" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C17" r:id="rId72" display="海大-海师：郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D16:D17" r:id="rId73" display="行程单"/>
+    <hyperlink ref="E16" r:id="rId74" display="22.78"/>
+    <hyperlink ref="E17" r:id="rId75" display="23.79"/>
+    <hyperlink ref="H16:H17" r:id="rId76" display="46.57"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>编号</t>
   </si>
@@ -121,6 +121,12 @@
     <t>瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮</t>
   </si>
   <si>
+    <t>海口美兰-海师: 郝旭光、成志远、张嘉佳、傅琦玮</t>
+  </si>
+  <si>
+    <t>张嘉佳</t>
+  </si>
+  <si>
     <t>航班-哈尔滨太平-海口美兰:郝旭光</t>
   </si>
   <si>
@@ -134,9 +140,6 @@
   </si>
   <si>
     <t>航班-哈尔滨太平-海口美兰:张嘉佳</t>
-  </si>
-  <si>
-    <t>张嘉佳</t>
   </si>
 </sst>
 </file>
@@ -144,11 +147,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -209,8 +212,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,57 +303,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,20 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -314,22 +333,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -352,175 +355,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,15 +621,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -639,6 +633,45 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,187 +705,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,15 +925,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,19 +946,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,18 +980,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1343,12 +1319,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1364,7 +1340,7 @@
     <col min="9" max="9" width="7.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.7" style="4" customWidth="1"/>
     <col min="11" max="11" width="8.525" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.36666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.4583333333333" style="2" customWidth="1"/>
     <col min="13" max="25" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1393,10 +1369,10 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1411,8 +1387,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
@@ -1431,18 +1407,18 @@
       <c r="E3" s="22">
         <v>23.04</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="22">
         <v>23.85</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="36">
         <f>IF(E3&lt;H3,E3,H3)</f>
         <v>23.04</v>
       </c>
-      <c r="J3" s="42">
-        <f>SUM(I3:I22)</f>
-        <v>12416.14</v>
+      <c r="J3" s="37">
+        <f>SUM(I3:I23)</f>
+        <v>15201.68</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>14</v>
@@ -1474,11 +1450,11 @@
       <c r="H4" s="22">
         <v>59</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="38">
         <f>SUM(E4,IF(G4&lt;SUM(H4:H7),G4,SUM(H4:H7)))</f>
         <v>5435.97</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1498,8 +1474,8 @@
       <c r="H5" s="22">
         <v>59</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="44"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11">
@@ -1517,8 +1493,8 @@
       <c r="H6" s="22">
         <v>59</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="44"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11">
@@ -1536,9 +1512,9 @@
       <c r="H7" s="22">
         <v>59</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="17"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
@@ -1554,19 +1530,17 @@
       <c r="E8" s="22">
         <v>151</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="22">
         <v>151</v>
       </c>
-      <c r="I8" s="41">
-        <f>IF(E8&lt;H8,E8,H8)</f>
+      <c r="I8" s="36">
+        <f t="shared" ref="I8:I15" si="0">IF(E8&lt;H8,E8,H8)</f>
         <v>151</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7">
@@ -1587,18 +1561,16 @@
       <c r="F9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="22">
         <v>4010.55</v>
       </c>
-      <c r="I9" s="41">
-        <f>IF(E9&lt;H9,E9,H9)</f>
+      <c r="I9" s="36">
+        <f t="shared" si="0"/>
         <v>4010.55</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
@@ -1616,19 +1588,17 @@
       <c r="E10" s="22">
         <v>10.74</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="22">
         <v>9.92</v>
       </c>
-      <c r="I10" s="41">
-        <f>IF(E10&lt;H10,E10,H10)</f>
+      <c r="I10" s="36">
+        <f t="shared" si="0"/>
         <v>9.92</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
@@ -1646,16 +1616,16 @@
       <c r="E11" s="22">
         <v>11.36</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22">
         <v>11.36</v>
       </c>
-      <c r="I11" s="41">
-        <f>IF(E11&lt;H11,E11,H11)</f>
+      <c r="I11" s="36">
+        <f t="shared" si="0"/>
         <v>11.36</v>
       </c>
-      <c r="J11" s="44"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
@@ -1674,16 +1644,16 @@
       <c r="E12" s="22">
         <v>11.96</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22">
         <v>11.96</v>
       </c>
-      <c r="I12" s="41">
-        <f>IF(E12&lt;H12,E12,H12)</f>
+      <c r="I12" s="36">
+        <f t="shared" si="0"/>
         <v>11.96</v>
       </c>
-      <c r="J12" s="44"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
@@ -1702,16 +1672,16 @@
       <c r="E13" s="22">
         <v>13.49</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22">
         <v>13.49</v>
       </c>
-      <c r="I13" s="41">
-        <f>IF(E13&lt;H13,E13,H13)</f>
+      <c r="I13" s="36">
+        <f t="shared" si="0"/>
         <v>13.49</v>
       </c>
-      <c r="J13" s="44"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11">
@@ -1730,16 +1700,16 @@
       <c r="E14" s="22">
         <v>10.49</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22">
         <v>10.49</v>
       </c>
-      <c r="I14" s="41">
-        <f>IF(E14&lt;H14,E14,H14)</f>
+      <c r="I14" s="36">
+        <f t="shared" si="0"/>
         <v>10.49</v>
       </c>
-      <c r="J14" s="44"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11">
@@ -1758,16 +1728,16 @@
       <c r="E15" s="22">
         <v>12.37</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="31">
+      <c r="H15" s="29">
         <v>12.37</v>
       </c>
-      <c r="I15" s="41">
-        <f>IF(E15&lt;H15,E15,H15)</f>
+      <c r="I15" s="36">
+        <f t="shared" si="0"/>
         <v>12.37</v>
       </c>
-      <c r="J15" s="44"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11">
@@ -1786,17 +1756,17 @@
       <c r="E16" s="22">
         <v>22.78</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="33">
+      <c r="H16" s="22">
         <v>46.57</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="38">
         <f>IF(SUM(E16:E17)&lt;H16,SUM(E16:E17),H16)</f>
         <v>46.57</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="48" t="s">
+      <c r="J16" s="39"/>
+      <c r="K16" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1810,16 +1780,16 @@
       <c r="C17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="22">
         <v>23.79</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="48"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1841,16 +1811,16 @@
         <v>77.42</v>
       </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36">
+      <c r="G18" s="30"/>
+      <c r="H18" s="31">
         <v>87.1</v>
       </c>
-      <c r="I18" s="41">
-        <f t="shared" ref="I18:I24" si="0">IF(E18&lt;H18,E18,H18)</f>
+      <c r="I18" s="36">
+        <f>IF(E18&lt;H18,E18,H18)</f>
         <v>77.42</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="50"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7">
@@ -1859,57 +1829,57 @@
       <c r="B19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="22">
-        <v>1230</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="41">
-        <f>E19</f>
-        <v>1230</v>
-      </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="20" t="s">
-        <v>17</v>
+        <v>43.54</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31">
+        <v>41.54</v>
+      </c>
+      <c r="I19" s="36">
+        <f>IF(H19&lt;E19,H19,E19)</f>
+        <v>41.54</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7">
         <v>15</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="24" t="s">
-        <v>35</v>
+      <c r="B20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="22">
-        <v>1372</v>
+        <v>1230</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="22">
-        <v>72</v>
-      </c>
-      <c r="I20" s="41">
+      <c r="G20" s="22"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="36">
         <f>E20</f>
-        <v>1372</v>
-      </c>
-      <c r="J20" s="44"/>
+        <v>1230</v>
+      </c>
+      <c r="J20" s="39"/>
       <c r="K20" s="20" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1917,102 +1887,140 @@
         <v>16</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="22">
+        <v>1372</v>
+      </c>
       <c r="F21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="20"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="22">
+        <v>72</v>
+      </c>
+      <c r="I21" s="36">
+        <f>E21</f>
+        <v>1372</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7">
         <v>17</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="25" t="s">
-        <v>38</v>
+      <c r="C22" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="22">
+        <v>1372</v>
+      </c>
       <c r="F22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="11:11">
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="4">
-        <f>SUM(I4,I8,I9,I10:I15,I19)</f>
-        <v>10897.11</v>
-      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="36">
+        <f>E22</f>
+        <v>1372</v>
+      </c>
+      <c r="J22" s="39"/>
+      <c r="K22" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7">
+        <v>18</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1372</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="36">
+        <f>E23</f>
+        <v>1372</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="10:11">
       <c r="J25" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K25" s="4">
-        <f>SUM(I3,I16:I18,I21)</f>
-        <v>147.03</v>
+        <f>SUM(I4,I8,I9,I10:I15,I20)</f>
+        <v>10897.11</v>
       </c>
     </row>
     <row r="26" spans="10:11">
       <c r="J26" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="K26" s="4">
-        <f>SUM(I22)</f>
-        <v>0</v>
+        <f>SUM(I3,I16:I18,I22)</f>
+        <v>1519.03</v>
       </c>
     </row>
     <row r="27" spans="10:11">
       <c r="J27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="4">
-        <f>SUM(I20)</f>
-        <v>1372</v>
+        <f>SUM(I23,I19)</f>
+        <v>1413.54</v>
       </c>
     </row>
     <row r="28" spans="10:11">
       <c r="J28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="4">
+        <f>SUM(I21)</f>
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11">
+      <c r="J29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="4">
-        <f>SUM(K24:K27)</f>
-        <v>12416.14</v>
+      <c r="K29" s="4">
+        <f>SUM(K25:K28)</f>
+        <v>15201.68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E4:E7"/>
@@ -2020,12 +2028,11 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J3:J22"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="J3:J23"/>
+    <mergeCell ref="K4:K15"/>
     <mergeCell ref="K16:K18"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:K3 A4:B4 A8:A19 I8:I16 I18:I22 I4">
+  <conditionalFormatting sqref="A3:K3 A4:B4 A8:A20 I4 I8:I16 I18:I23">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -2041,16 +2048,16 @@
     <hyperlink ref="C13" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="C15" r:id="rId9" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="D11" r:id="rId10" display="行程单"/>
-    <hyperlink ref="C19" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
-    <hyperlink ref="D19" r:id="rId12" display="行程单"/>
-    <hyperlink ref="D20" r:id="rId13" display="行程单"/>
-    <hyperlink ref="D21" r:id="rId14" display="行程单"/>
-    <hyperlink ref="D22" r:id="rId15" display="行程单"/>
-    <hyperlink ref="F19" r:id="rId16" display="验真"/>
-    <hyperlink ref="F20" r:id="rId17" display="验真"/>
-    <hyperlink ref="F21" r:id="rId18" display="验真"/>
-    <hyperlink ref="F22" r:id="rId19" display="验真"/>
-    <hyperlink ref="E19" r:id="rId20" display="1230"/>
+    <hyperlink ref="C20" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
+    <hyperlink ref="D20" r:id="rId12" display="行程单"/>
+    <hyperlink ref="D21" r:id="rId13" display="行程单"/>
+    <hyperlink ref="D22" r:id="rId14" display="行程单"/>
+    <hyperlink ref="D23" r:id="rId15" display="行程单"/>
+    <hyperlink ref="F20" r:id="rId16" display="验真"/>
+    <hyperlink ref="F21" r:id="rId17" display="验真"/>
+    <hyperlink ref="F22" r:id="rId18" display="验真"/>
+    <hyperlink ref="F23" r:id="rId19" display="验真"/>
+    <hyperlink ref="E20" r:id="rId20" display="1230"/>
     <hyperlink ref="D14" r:id="rId21" display="行程单"/>
     <hyperlink ref="E14" r:id="rId22" display="10.49"/>
     <hyperlink ref="H14" r:id="rId23" display="10.49"/>
@@ -2085,9 +2092,9 @@
     <hyperlink ref="E12" r:id="rId49" display="11.96"/>
     <hyperlink ref="H12" r:id="rId50" display="11.96"/>
     <hyperlink ref="E15" r:id="rId51" display="12.37"/>
-    <hyperlink ref="C20" r:id="rId52" display="航班-哈尔滨太平-海口美兰:傅琦玮"/>
-    <hyperlink ref="E20" r:id="rId53" display="1372"/>
-    <hyperlink ref="H20" r:id="rId54" display="72"/>
+    <hyperlink ref="C21" r:id="rId52" display="航班-哈尔滨太平-海口美兰:傅琦玮"/>
+    <hyperlink ref="E21" r:id="rId53" display="1372"/>
+    <hyperlink ref="H21" r:id="rId54" display="72"/>
     <hyperlink ref="E8" r:id="rId55" display="151"/>
     <hyperlink ref="C9" r:id="rId56" display="哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="D9" r:id="rId57" display="美团订单"/>
@@ -2110,6 +2117,14 @@
     <hyperlink ref="E16" r:id="rId74" display="22.78"/>
     <hyperlink ref="E17" r:id="rId75" display="23.79"/>
     <hyperlink ref="H16:H17" r:id="rId76" display="46.57"/>
+    <hyperlink ref="C22" r:id="rId77" display="航班-哈尔滨太平-海口美兰:成志远"/>
+    <hyperlink ref="E22" r:id="rId78" display="1372"/>
+    <hyperlink ref="C23" r:id="rId79" display="航班-哈尔滨太平-海口美兰:张嘉佳"/>
+    <hyperlink ref="E23" r:id="rId80" display="1372"/>
+    <hyperlink ref="C19" r:id="rId81" display="海口美兰-海师: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D19" r:id="rId82" display="行程单"/>
+    <hyperlink ref="E19" r:id="rId83" display="43.54"/>
+    <hyperlink ref="H19" r:id="rId84" display="41.54"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -147,11 +147,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -199,6 +199,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -207,6 +222,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +252,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -229,7 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,31 +282,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,18 +311,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,24 +327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,25 +349,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +439,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,139 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,8 +611,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,8 +620,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +633,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,22 +671,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,16 +692,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,148 +710,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -949,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,7 +1324,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1930,7 +1930,9 @@
         <v>5</v>
       </c>
       <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="H22" s="22">
+        <v>72</v>
+      </c>
       <c r="I22" s="36">
         <f>E22</f>
         <v>1372</v>
@@ -1958,7 +1960,9 @@
         <v>5</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="H23" s="22">
+        <v>72</v>
+      </c>
       <c r="I23" s="36">
         <f>E23</f>
         <v>1372</v>
@@ -2125,6 +2129,8 @@
     <hyperlink ref="D19" r:id="rId82" display="行程单"/>
     <hyperlink ref="E19" r:id="rId83" display="43.54"/>
     <hyperlink ref="H19" r:id="rId84" display="41.54"/>
+    <hyperlink ref="H22" r:id="rId85" display="72"/>
+    <hyperlink ref="H23" r:id="rId86" display="72"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -16,8 +16,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xhao</author>
+  </authors>
+  <commentList>
+    <comment ref="K16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xhao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+发票行程单无法分割，分区赛打车费统一到此处报销</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>编号</t>
   </si>
@@ -52,6 +84,9 @@
     <t>收款人</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>2024-08-18</t>
   </si>
   <si>
@@ -64,6 +99,9 @@
     <t>成志远</t>
   </si>
   <si>
+    <t>收款人已确认</t>
+  </si>
+  <si>
     <t>海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮</t>
   </si>
   <si>
@@ -113,9 +151,6 @@
   </si>
   <si>
     <t>海大-海师：郝旭光、成志远、张嘉佳、傅琦玮</t>
-  </si>
-  <si>
-    <t>发票行程单无法分割，统一到此处报销</t>
   </si>
   <si>
     <t>瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮</t>
@@ -147,13 +182,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +234,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,40 +355,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,79 +369,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -349,13 +395,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,169 +539,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,28 +657,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,11 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,17 +723,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,152 +756,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,19 +1016,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,10 +1379,10 @@
   <sheetPr/>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1340,11 +1398,11 @@
     <col min="9" max="9" width="7.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.7" style="4" customWidth="1"/>
     <col min="11" max="11" width="8.525" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.4583333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="2" customWidth="1"/>
     <col min="13" max="25" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1377,6 +1435,9 @@
       </c>
       <c r="K1" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="1" customHeight="1" spans="2:10">
@@ -1390,19 +1451,19 @@
       <c r="I2" s="34"/>
       <c r="J2" s="35"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="7">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="22">
         <v>23.04</v>
@@ -1421,22 +1482,25 @@
         <v>15201.68</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="11">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="22">
         <v>5199.97</v>
@@ -1450,21 +1514,22 @@
       <c r="H4" s="22">
         <v>59</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="39">
         <f>SUM(E4,IF(G4&lt;SUM(H4:H7),G4,SUM(H4:H7)))</f>
         <v>5435.97</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>19</v>
+      </c>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="13"/>
       <c r="D5" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
@@ -1474,16 +1539,17 @@
       <c r="H5" s="22">
         <v>59</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="39"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="13"/>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
@@ -1493,16 +1559,17 @@
       <c r="H6" s="22">
         <v>59</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="39"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="13"/>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
@@ -1512,19 +1579,20 @@
       <c r="H7" s="22">
         <v>59</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="22">
@@ -1539,21 +1607,22 @@
         <f t="shared" ref="I8:I15" si="0">IF(E8&lt;H8,E8,H8)</f>
         <v>151</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="7">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="22">
         <v>4010.55</v>
@@ -1569,21 +1638,22 @@
         <f t="shared" si="0"/>
         <v>4010.55</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="22">
         <v>10.74</v>
@@ -1597,21 +1667,22 @@
         <f t="shared" si="0"/>
         <v>9.92</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="22">
         <v>11.36</v>
@@ -1625,21 +1696,22 @@
         <f t="shared" si="0"/>
         <v>11.36</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="22">
         <v>11.96</v>
@@ -1653,21 +1725,22 @@
         <f t="shared" si="0"/>
         <v>11.96</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="22">
         <v>13.49</v>
@@ -1681,21 +1754,22 @@
         <f t="shared" si="0"/>
         <v>13.49</v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="22">
         <v>10.49</v>
@@ -1709,21 +1783,22 @@
         <f t="shared" si="0"/>
         <v>10.49</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="7">
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="22">
         <v>12.37</v>
@@ -1737,21 +1812,22 @@
         <f t="shared" si="0"/>
         <v>12.37</v>
       </c>
-      <c r="J15" s="39"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="7">
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="22">
         <v>22.78</v>
@@ -1761,13 +1837,16 @@
       <c r="H16" s="22">
         <v>46.57</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="39">
         <f>IF(SUM(E16:E17)&lt;H16,SUM(E16:E17),H16)</f>
         <v>46.57</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1775,10 +1854,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22">
@@ -1787,25 +1866,23 @@
       <c r="F17" s="28"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="39"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="7">
         <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="22">
         <v>77.42</v>
@@ -1819,21 +1896,22 @@
         <f>IF(E18&lt;H18,E18,H18)</f>
         <v>77.42</v>
       </c>
-      <c r="J18" s="39"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="7">
         <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="22">
         <v>43.54</v>
@@ -1847,23 +1925,26 @@
         <f>IF(H19&lt;E19,H19,E19)</f>
         <v>41.54</v>
       </c>
-      <c r="J19" s="39"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="7">
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="22">
         <v>1230</v>
@@ -1877,21 +1958,22 @@
         <f>E20</f>
         <v>1230</v>
       </c>
-      <c r="J20" s="39"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>19</v>
+      </c>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="7">
         <v>16</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="22">
         <v>1372</v>
@@ -1907,21 +1989,24 @@
         <f>E21</f>
         <v>1372</v>
       </c>
-      <c r="J21" s="39"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>39</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="7">
         <v>17</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="22">
         <v>1372</v>
@@ -1937,21 +2022,24 @@
         <f>E22</f>
         <v>1372</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="40"/>
+      <c r="K22" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="7">
         <v>18</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="22">
         <v>1372</v>
@@ -1967,17 +2055,16 @@
         <f>E23</f>
         <v>1372</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="11:11">
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="10:11">
       <c r="J25" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K25" s="4">
         <f>SUM(I4,I8,I9,I10:I15,I20)</f>
@@ -1986,25 +2073,25 @@
     </row>
     <row r="26" spans="10:11">
       <c r="J26" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K26" s="4">
-        <f>SUM(I3,I16:I18,I22)</f>
-        <v>1519.03</v>
+        <f>SUM(I3,I16:I18,I22:I23)</f>
+        <v>2891.03</v>
       </c>
     </row>
     <row r="27" spans="10:11">
       <c r="J27" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="4">
-        <f>SUM(I23,I19)</f>
-        <v>1413.54</v>
+        <f>SUM(I19)</f>
+        <v>41.54</v>
       </c>
     </row>
     <row r="28" spans="10:11">
       <c r="J28" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28" s="4">
         <f>SUM(I21)</f>
@@ -2021,7 +2108,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B20:B23"/>
@@ -2035,6 +2122,9 @@
     <mergeCell ref="J3:J23"/>
     <mergeCell ref="K4:K15"/>
     <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L22:L23"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:K3 A4:B4 A8:A20 I4 I8:I16 I18:I23">
     <cfRule type="expression" dxfId="0" priority="9">
@@ -2042,98 +2132,99 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="海师-美兰: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C4" r:id="rId2" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C8" r:id="rId3" display="哈尔滨太平-哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C10" r:id="rId4" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C11" r:id="rId5" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C12" r:id="rId6" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C14" r:id="rId7" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C13" r:id="rId8" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C15" r:id="rId9" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D11" r:id="rId10" display="行程单"/>
-    <hyperlink ref="C20" r:id="rId11" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
-    <hyperlink ref="D20" r:id="rId12" display="行程单"/>
-    <hyperlink ref="D21" r:id="rId13" display="行程单"/>
-    <hyperlink ref="D22" r:id="rId14" display="行程单"/>
-    <hyperlink ref="D23" r:id="rId15" display="行程单"/>
-    <hyperlink ref="F20" r:id="rId16" display="验真"/>
-    <hyperlink ref="F21" r:id="rId17" display="验真"/>
-    <hyperlink ref="F22" r:id="rId18" display="验真"/>
-    <hyperlink ref="F23" r:id="rId19" display="验真"/>
-    <hyperlink ref="E20" r:id="rId20" display="1230"/>
-    <hyperlink ref="D14" r:id="rId21" display="行程单"/>
-    <hyperlink ref="E14" r:id="rId22" display="10.49"/>
-    <hyperlink ref="H14" r:id="rId23" display="10.49"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId24" display="行程单:郝旭光"/>
-    <hyperlink ref="D5" r:id="rId25" display="行程单:成志远"/>
-    <hyperlink ref="D6" r:id="rId26" display="行程单:张嘉佳"/>
-    <hyperlink ref="D7" r:id="rId27" display="行程单:傅琦玮"/>
-    <hyperlink ref="E4:E7" r:id="rId28" display="5199.97"/>
-    <hyperlink ref="C4:C7" r:id="rId29" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="G4:G7" r:id="rId30" display="236"/>
+    <hyperlink ref="C3" r:id="rId3" display="海师-美兰: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C4" r:id="rId4" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C8" r:id="rId5" display="哈尔滨太平-哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C10" r:id="rId6" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C11" r:id="rId7" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C12" r:id="rId8" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C14" r:id="rId9" display="瑞居酒店-哈工程: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C13" r:id="rId10" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C15" r:id="rId11" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D11" r:id="rId12" display="行程单"/>
+    <hyperlink ref="C20" r:id="rId13" display="航班-哈尔滨太平-海口美兰:郝旭光"/>
+    <hyperlink ref="D20" r:id="rId14" display="行程单"/>
+    <hyperlink ref="D21" r:id="rId15" display="行程单"/>
+    <hyperlink ref="D22" r:id="rId16" display="行程单"/>
+    <hyperlink ref="D23" r:id="rId17" display="行程单"/>
+    <hyperlink ref="F20" r:id="rId18" display="验真"/>
+    <hyperlink ref="F21" r:id="rId19" display="验真"/>
+    <hyperlink ref="F22" r:id="rId20" display="验真"/>
+    <hyperlink ref="F23" r:id="rId21" display="验真"/>
+    <hyperlink ref="E20" r:id="rId22" display="1230"/>
+    <hyperlink ref="D14" r:id="rId23" display="行程单"/>
+    <hyperlink ref="E14" r:id="rId24" display="10.49"/>
+    <hyperlink ref="H14" r:id="rId25" display="10.49"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId26" display="行程单:郝旭光"/>
+    <hyperlink ref="D5" r:id="rId27" display="行程单:成志远"/>
+    <hyperlink ref="D6" r:id="rId28" display="行程单:张嘉佳"/>
+    <hyperlink ref="D7" r:id="rId29" display="行程单:傅琦玮"/>
+    <hyperlink ref="E4:E7" r:id="rId30" display="5199.97"/>
     <hyperlink ref="C4:C7" r:id="rId31" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="H4" r:id="rId32" display="59"/>
-    <hyperlink ref="H5" r:id="rId33" display="59"/>
-    <hyperlink ref="H6" r:id="rId34" display="59"/>
-    <hyperlink ref="H7" r:id="rId35" display="59"/>
-    <hyperlink ref="F4" r:id="rId36" display="验真"/>
-    <hyperlink ref="F5" r:id="rId37" display="验真"/>
-    <hyperlink ref="F6" r:id="rId38" display="验真"/>
-    <hyperlink ref="F7" r:id="rId39" display="验真"/>
-    <hyperlink ref="D10" r:id="rId40" display="行程单"/>
-    <hyperlink ref="H10" r:id="rId41" display="9.92"/>
-    <hyperlink ref="E10" r:id="rId42" display="10.74"/>
-    <hyperlink ref="E11" r:id="rId43" display="11.36"/>
-    <hyperlink ref="H11" r:id="rId44" display="11.36"/>
-    <hyperlink ref="D13" r:id="rId45" display="行程单"/>
-    <hyperlink ref="E13" r:id="rId46" display="13.49"/>
-    <hyperlink ref="H13" r:id="rId47" display="13.49"/>
-    <hyperlink ref="D12" r:id="rId48" display="行程单"/>
-    <hyperlink ref="E12" r:id="rId49" display="11.96"/>
-    <hyperlink ref="H12" r:id="rId50" display="11.96"/>
-    <hyperlink ref="E15" r:id="rId51" display="12.37"/>
-    <hyperlink ref="C21" r:id="rId52" display="航班-哈尔滨太平-海口美兰:傅琦玮"/>
-    <hyperlink ref="E21" r:id="rId53" display="1372"/>
-    <hyperlink ref="H21" r:id="rId54" display="72"/>
-    <hyperlink ref="E8" r:id="rId55" display="151"/>
-    <hyperlink ref="C9" r:id="rId56" display="哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D9" r:id="rId57" display="美团订单"/>
-    <hyperlink ref="E9" r:id="rId58" display="4010.55"/>
-    <hyperlink ref="H9" r:id="rId59" display="4010.55"/>
-    <hyperlink ref="F9" r:id="rId60" display="验真"/>
-    <hyperlink ref="H8" r:id="rId61" display="151"/>
-    <hyperlink ref="D15" r:id="rId62" display="行程单"/>
-    <hyperlink ref="H15" r:id="rId63" display="12.37"/>
-    <hyperlink ref="D3" r:id="rId64" display="行程单"/>
-    <hyperlink ref="E3" r:id="rId65" display="23.04"/>
-    <hyperlink ref="H3" r:id="rId66" display="23.85"/>
-    <hyperlink ref="C18" r:id="rId67" display="瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D18" r:id="rId68" display="行程单"/>
-    <hyperlink ref="E18" r:id="rId69" display="77.42"/>
-    <hyperlink ref="H18" r:id="rId70" display="87.1"/>
-    <hyperlink ref="C16" r:id="rId71" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="C17" r:id="rId72" display="海大-海师：郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D16:D17" r:id="rId73" display="行程单"/>
-    <hyperlink ref="E16" r:id="rId74" display="22.78"/>
-    <hyperlink ref="E17" r:id="rId75" display="23.79"/>
-    <hyperlink ref="H16:H17" r:id="rId76" display="46.57"/>
-    <hyperlink ref="C22" r:id="rId77" display="航班-哈尔滨太平-海口美兰:成志远"/>
-    <hyperlink ref="E22" r:id="rId78" display="1372"/>
-    <hyperlink ref="C23" r:id="rId79" display="航班-哈尔滨太平-海口美兰:张嘉佳"/>
-    <hyperlink ref="E23" r:id="rId80" display="1372"/>
-    <hyperlink ref="C19" r:id="rId81" display="海口美兰-海师: 郝旭光、成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D19" r:id="rId82" display="行程单"/>
-    <hyperlink ref="E19" r:id="rId83" display="43.54"/>
-    <hyperlink ref="H19" r:id="rId84" display="41.54"/>
-    <hyperlink ref="H22" r:id="rId85" display="72"/>
-    <hyperlink ref="H23" r:id="rId86" display="72"/>
+    <hyperlink ref="G4:G7" r:id="rId32" display="236"/>
+    <hyperlink ref="C4:C7" r:id="rId33" display="海口美兰-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="H4" r:id="rId34" display="59"/>
+    <hyperlink ref="H5" r:id="rId35" display="59"/>
+    <hyperlink ref="H6" r:id="rId36" display="59"/>
+    <hyperlink ref="H7" r:id="rId37" display="59"/>
+    <hyperlink ref="F4" r:id="rId38" display="验真"/>
+    <hyperlink ref="F5" r:id="rId39" display="验真"/>
+    <hyperlink ref="F6" r:id="rId40" display="验真"/>
+    <hyperlink ref="F7" r:id="rId41" display="验真"/>
+    <hyperlink ref="D10" r:id="rId42" display="行程单"/>
+    <hyperlink ref="H10" r:id="rId43" display="9.92"/>
+    <hyperlink ref="E10" r:id="rId44" display="10.74"/>
+    <hyperlink ref="E11" r:id="rId45" display="11.36"/>
+    <hyperlink ref="H11" r:id="rId46" display="11.36"/>
+    <hyperlink ref="D13" r:id="rId47" display="行程单"/>
+    <hyperlink ref="E13" r:id="rId48" display="13.49"/>
+    <hyperlink ref="H13" r:id="rId49" display="13.49"/>
+    <hyperlink ref="D12" r:id="rId50" display="行程单"/>
+    <hyperlink ref="E12" r:id="rId51" display="11.96"/>
+    <hyperlink ref="H12" r:id="rId52" display="11.96"/>
+    <hyperlink ref="E15" r:id="rId53" display="12.37"/>
+    <hyperlink ref="C21" r:id="rId54" display="航班-哈尔滨太平-海口美兰:傅琦玮"/>
+    <hyperlink ref="E21" r:id="rId55" display="1372"/>
+    <hyperlink ref="H21" r:id="rId56" display="72"/>
+    <hyperlink ref="E8" r:id="rId57" display="151"/>
+    <hyperlink ref="C9" r:id="rId58" display="哈尔滨瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D9" r:id="rId59" display="美团订单"/>
+    <hyperlink ref="E9" r:id="rId60" display="4010.55"/>
+    <hyperlink ref="H9" r:id="rId61" display="4010.55"/>
+    <hyperlink ref="F9" r:id="rId62" display="验真"/>
+    <hyperlink ref="H8" r:id="rId63" display="151"/>
+    <hyperlink ref="D15" r:id="rId64" display="行程单"/>
+    <hyperlink ref="H15" r:id="rId65" display="12.37"/>
+    <hyperlink ref="D3" r:id="rId66" display="行程单"/>
+    <hyperlink ref="E3" r:id="rId67" display="23.04"/>
+    <hyperlink ref="H3" r:id="rId68" display="23.85"/>
+    <hyperlink ref="C18" r:id="rId69" display="瑞居酒店-哈尔滨太平: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D18" r:id="rId70" display="行程单"/>
+    <hyperlink ref="E18" r:id="rId71" display="77.42"/>
+    <hyperlink ref="H18" r:id="rId72" display="87.1"/>
+    <hyperlink ref="C16" r:id="rId73" display="哈工程-瑞居酒店: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="C17" r:id="rId74" display="海大-海师：郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D16:D17" r:id="rId75" display="行程单"/>
+    <hyperlink ref="E16" r:id="rId76" display="22.78"/>
+    <hyperlink ref="E17" r:id="rId77" display="23.79"/>
+    <hyperlink ref="H16:H17" r:id="rId78" display="46.57"/>
+    <hyperlink ref="C22" r:id="rId79" display="航班-哈尔滨太平-海口美兰:成志远"/>
+    <hyperlink ref="E22" r:id="rId80" display="1372"/>
+    <hyperlink ref="C23" r:id="rId81" display="航班-哈尔滨太平-海口美兰:张嘉佳"/>
+    <hyperlink ref="E23" r:id="rId82" display="1372"/>
+    <hyperlink ref="C19" r:id="rId83" display="海口美兰-海师: 郝旭光、成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D19" r:id="rId84" display="行程单"/>
+    <hyperlink ref="E19" r:id="rId85" display="43.54"/>
+    <hyperlink ref="H19" r:id="rId86" display="41.54"/>
+    <hyperlink ref="H22" r:id="rId87" display="72"/>
+    <hyperlink ref="H23" r:id="rId88" display="72"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/expense/国赛/汇总表.xlsx
+++ b/expense/国赛/汇总表.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>编号</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>航班-哈尔滨太平-海口美兰:张嘉佳</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>学生机票</t>
+  </si>
+  <si>
+    <t>我机票</t>
+  </si>
+  <si>
+    <t>学生住宿</t>
+  </si>
+  <si>
+    <t>我住宿</t>
+  </si>
+  <si>
+    <t>成志远打车</t>
+  </si>
+  <si>
+    <t>张嘉佳打车</t>
+  </si>
+  <si>
+    <t>我打车</t>
   </si>
 </sst>
 </file>
@@ -182,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -241,21 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,17 +303,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,30 +357,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,21 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -401,13 +425,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,163 +509,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,32 +687,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,6 +720,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -723,31 +761,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,145 +780,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -995,7 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,12 +1401,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1393,9 +1417,9 @@
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.41666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.325" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.7" style="4" customWidth="1"/>
     <col min="11" max="11" width="8.525" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.875" style="2" customWidth="1"/>
@@ -2098,7 +2122,10 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="29" spans="10:11">
+    <row r="29" spans="7:11">
+      <c r="G29" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J29" s="4" t="s">
         <v>9</v>
       </c>
@@ -2107,8 +2134,126 @@
         <v>15201.68</v>
       </c>
     </row>
+    <row r="30" spans="4:9">
+      <c r="D30" s="4">
+        <f>5436/4+1372</f>
+        <v>2731</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="4">
+        <f>D30*3</f>
+        <v>8193</v>
+      </c>
+      <c r="H30" s="4">
+        <f>SUM(G30:G31)</f>
+        <v>10781.97</v>
+      </c>
+      <c r="I30" s="3">
+        <f>SUM(I4:I7,I20:I23)</f>
+        <v>10781.97</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8">
+      <c r="D31" s="4">
+        <f>5436/4-0.03+1230</f>
+        <v>2588.97</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="4">
+        <f>D31</f>
+        <v>2588.97</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="4:8">
+      <c r="D32" s="4">
+        <f>ROUND(4010.55/4,2)-0.01</f>
+        <v>1002.63</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="4">
+        <f>D32*3</f>
+        <v>3007.89</v>
+      </c>
+      <c r="H32" s="4">
+        <f>SUM(G32:G33)</f>
+        <v>4010.55</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33" s="4">
+        <f>4010.55-(ROUND(4010.55/4,2)-0.01)*3</f>
+        <v>1002.66</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="4">
+        <f>D33</f>
+        <v>1002.66</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="4">
+        <f>SUM(I3,I16:I17,I18)</f>
+        <v>147.03</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="4">
+        <f>D34</f>
+        <v>147.03</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="4">
+        <f>SUM(I19)</f>
+        <v>41.54</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="4">
+        <f>D35</f>
+        <v>41.54</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="4">
+        <f>SUM(I8,I10:I15)</f>
+        <v>220.59</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="4">
+        <f>D36</f>
+        <v>220.59</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="4"/>
+      <c r="F37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="4">
+        <f>SUM(G30:G36)</f>
+        <v>15201.68</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B20:B23"/>
@@ -2117,8 +2262,11 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I30:I31"/>
     <mergeCell ref="J3:J23"/>
     <mergeCell ref="K4:K15"/>
     <mergeCell ref="K16:K18"/>
